--- a/notebooks/am_all_tram_stations0.xlsx
+++ b/notebooks/am_all_tram_stations0.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E528"/>
+  <dimension ref="A1:E475"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5296,12 +5296,12 @@
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>702260980</t>
+          <t>702261011</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>platform</t>
+          <t>stop_position</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
@@ -5311,19 +5311,19 @@
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>Jan Voermanstraat</t>
+          <t>Johan Huizingalaan</t>
         </is>
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>POINT (4.8383423 52.3694461)</t>
+          <t>POINT (4.8274406 52.349218)</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>702261011</t>
+          <t>721160479</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
@@ -5338,19 +5338,19 @@
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>Johan Huizingalaan</t>
+          <t>Burgemeester Fockstraat</t>
         </is>
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>POINT (4.8274406 52.349218)</t>
+          <t>POINT (4.8312794 52.3798913)</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>721160479</t>
+          <t>721160483</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
@@ -5365,19 +5365,19 @@
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>Burgemeester Fockstraat</t>
+          <t>Burgemeester de Vlugtlaan</t>
         </is>
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>POINT (4.8312794 52.3798913)</t>
+          <t>POINT (4.8382938 52.3787581)</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>721160483</t>
+          <t>721160531</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
@@ -5392,19 +5392,19 @@
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>Burgemeester de Vlugtlaan</t>
+          <t>Plein '40-'45</t>
         </is>
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>POINT (4.8382938 52.3787581)</t>
+          <t>POINT (4.8211591 52.3808373)</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>721160531</t>
+          <t>721160537</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
@@ -5419,19 +5419,19 @@
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>Plein '40-'45</t>
+          <t>Burgemeester de Vlugtlaan</t>
         </is>
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>POINT (4.8211591 52.3808373)</t>
+          <t>POINT (4.8372054 52.378963)</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>721160537</t>
+          <t>721160612</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
@@ -5446,19 +5446,19 @@
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>Burgemeester de Vlugtlaan</t>
+          <t>Rozengracht</t>
         </is>
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>POINT (4.8372054 52.378963)</t>
+          <t>POINT (4.8758665 52.3726552)</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>721160612</t>
+          <t>721160625</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
@@ -5473,19 +5473,19 @@
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>Rozengracht</t>
+          <t>Marnixstraat</t>
         </is>
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>POINT (4.8758665 52.3726552)</t>
+          <t>POINT (4.8763385 52.3723364)</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>721160625</t>
+          <t>721160643</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
@@ -5500,19 +5500,19 @@
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>Marnixstraat</t>
+          <t>Plein '40-'45</t>
         </is>
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>POINT (4.8763385 52.3723364)</t>
+          <t>POINT (4.8225241 52.3812253)</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>721160643</t>
+          <t>721160690</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
@@ -5527,19 +5527,19 @@
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>Plein '40-'45</t>
+          <t>Elandsgracht</t>
         </is>
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>POINT (4.8225241 52.3812253)</t>
+          <t>POINT (4.8784804 52.3681689)</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>721160690</t>
+          <t>721160706</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
@@ -5554,19 +5554,19 @@
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>Elandsgracht</t>
+          <t>Burgemeester Eliasstraat</t>
         </is>
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>POINT (4.8784804 52.3681689)</t>
+          <t>POINT (4.8258104 52.38075)</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>721160706</t>
+          <t>721160782</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
@@ -5581,19 +5581,19 @@
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>Burgemeester Eliasstraat</t>
+          <t>Elandsgracht</t>
         </is>
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>POINT (4.8258104 52.38075)</t>
+          <t>POINT (4.8768971 52.368541)</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>721160782</t>
+          <t>721160810</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
@@ -5608,19 +5608,19 @@
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>Elandsgracht</t>
+          <t>Burgemeester Eliasstraat</t>
         </is>
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>POINT (4.8768971 52.368541)</t>
+          <t>POINT (4.8275036 52.3804505)</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>721160810</t>
+          <t>721160815</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
@@ -5635,19 +5635,19 @@
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>Burgemeester Eliasstraat</t>
+          <t>Burgemeester Fockstraat</t>
         </is>
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>POINT (4.8275036 52.3804505)</t>
+          <t>POINT (4.8332396 52.3795507)</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>721160815</t>
+          <t>724099181</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
@@ -5662,19 +5662,19 @@
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>Burgemeester Fockstraat</t>
+          <t>VUmc Hoofdingang</t>
         </is>
       </c>
       <c r="E194" t="inlineStr">
         <is>
-          <t>POINT (4.8332396 52.3795507)</t>
+          <t>POINT (4.8600614 52.3351977)</t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>724099181</t>
+          <t>724099197</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
@@ -5694,14 +5694,14 @@
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>POINT (4.8600614 52.3351977)</t>
+          <t>POINT (4.8611177 52.3351485)</t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>724099197</t>
+          <t>724232573</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
@@ -5716,19 +5716,19 @@
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>VUmc Hoofdingang</t>
+          <t>Westermarkt</t>
         </is>
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>POINT (4.8611177 52.3351485)</t>
+          <t>POINT (4.8837739 52.3740565)</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>724232573</t>
+          <t>724232633</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
@@ -5743,19 +5743,19 @@
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>Westermarkt</t>
+          <t>Concertgebouw</t>
         </is>
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>POINT (4.8837739 52.3740565)</t>
+          <t>POINT (4.8791804 52.3559245)</t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>724232633</t>
+          <t>724232636</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
@@ -5775,14 +5775,14 @@
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>POINT (4.8791804 52.3559245)</t>
+          <t>POINT (4.8798 52.3564107)</t>
         </is>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>724232636</t>
+          <t>724232674</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
@@ -5797,19 +5797,19 @@
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>Concertgebouw</t>
+          <t>Olympisch Stadion</t>
         </is>
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>POINT (4.8798 52.3564107)</t>
+          <t>POINT (4.8569523 52.3438468)</t>
         </is>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>724232674</t>
+          <t>724232677</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
@@ -5824,19 +5824,19 @@
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>Olympisch Stadion</t>
+          <t>Westermarkt</t>
         </is>
       </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t>POINT (4.8569523 52.3438468)</t>
+          <t>POINT (4.8843359 52.3740143)</t>
         </is>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>724232677</t>
+          <t>724344100</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
@@ -5851,19 +5851,19 @@
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>Westermarkt</t>
+          <t>Zeilstraat</t>
         </is>
       </c>
       <c r="E201" t="inlineStr">
         <is>
-          <t>POINT (4.8843359 52.3740143)</t>
+          <t>POINT (4.8567453 52.351218)</t>
         </is>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>724344100</t>
+          <t>724345008</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
@@ -5878,19 +5878,19 @@
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>Zeilstraat</t>
+          <t>Amstelveenseweg</t>
         </is>
       </c>
       <c r="E202" t="inlineStr">
         <is>
-          <t>POINT (4.8567453 52.351218)</t>
+          <t>POINT (4.8569254 52.3516105)</t>
         </is>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>724345008</t>
+          <t>724345194</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
@@ -5905,19 +5905,19 @@
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t>Amstelveenseweg</t>
+          <t>Emmastraat</t>
         </is>
       </c>
       <c r="E203" t="inlineStr">
         <is>
-          <t>POINT (4.8569254 52.3516105)</t>
+          <t>POINT (4.870169 52.3531926)</t>
         </is>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>724345194</t>
+          <t>724345254</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
@@ -5932,19 +5932,19 @@
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>Emmastraat</t>
+          <t>Amstelveenseweg</t>
         </is>
       </c>
       <c r="E204" t="inlineStr">
         <is>
-          <t>POINT (4.870169 52.3531926)</t>
+          <t>POINT (4.8560802 52.3513581)</t>
         </is>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>724345254</t>
+          <t>724345268</t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
@@ -5964,14 +5964,14 @@
       </c>
       <c r="E205" t="inlineStr">
         <is>
-          <t>POINT (4.8560802 52.3513581)</t>
+          <t>POINT (4.8564723 52.3517583)</t>
         </is>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>724345268</t>
+          <t>726817226</t>
         </is>
       </c>
       <c r="B206" t="inlineStr">
@@ -5986,19 +5986,19 @@
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>Amstelveenseweg</t>
+          <t>Nieuwezijds Kolk</t>
         </is>
       </c>
       <c r="E206" t="inlineStr">
         <is>
-          <t>POINT (4.8564723 52.3517583)</t>
+          <t>POINT (4.8934715 52.3761313)</t>
         </is>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>726817226</t>
+          <t>726817850</t>
         </is>
       </c>
       <c r="B207" t="inlineStr">
@@ -6018,14 +6018,14 @@
       </c>
       <c r="E207" t="inlineStr">
         <is>
-          <t>POINT (4.8934715 52.3761313)</t>
+          <t>POINT (4.8930014 52.3758615)</t>
         </is>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>726817850</t>
+          <t>764161962</t>
         </is>
       </c>
       <c r="B208" t="inlineStr">
@@ -6040,24 +6040,24 @@
       </c>
       <c r="D208" t="inlineStr">
         <is>
-          <t>Nieuwezijds Kolk</t>
+          <t>Heemstedestraat</t>
         </is>
       </c>
       <c r="E208" t="inlineStr">
         <is>
-          <t>POINT (4.8930014 52.3758615)</t>
+          <t>POINT (4.8337504 52.3515095)</t>
         </is>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>761242604</t>
+          <t>795542606</t>
         </is>
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>platform</t>
+          <t>stop_position</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
@@ -6067,19 +6067,19 @@
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t>Hoofddorpplein</t>
+          <t>Kattenburgerstraat</t>
         </is>
       </c>
       <c r="E209" t="inlineStr">
         <is>
-          <t>POINT (4.8495714 52.3511629)</t>
+          <t>POINT (4.9220599 52.3760656)</t>
         </is>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>764161962</t>
+          <t>795542860</t>
         </is>
       </c>
       <c r="B210" t="inlineStr">
@@ -6094,19 +6094,19 @@
       </c>
       <c r="D210" t="inlineStr">
         <is>
-          <t>Heemstedestraat</t>
+          <t>Zuiderzeeweg</t>
         </is>
       </c>
       <c r="E210" t="inlineStr">
         <is>
-          <t>POINT (4.8337504 52.3515095)</t>
+          <t>POINT (4.9616961 52.3720001)</t>
         </is>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>795542606</t>
+          <t>805087247</t>
         </is>
       </c>
       <c r="B211" t="inlineStr">
@@ -6121,19 +6121,19 @@
       </c>
       <c r="D211" t="inlineStr">
         <is>
-          <t>Kattenburgerstraat</t>
+          <t>Laan van Vlaanderen</t>
         </is>
       </c>
       <c r="E211" t="inlineStr">
         <is>
-          <t>POINT (4.9220599 52.3760656)</t>
+          <t>POINT (4.816387 52.3464822)</t>
         </is>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>795542860</t>
+          <t>881345030</t>
         </is>
       </c>
       <c r="B212" t="inlineStr">
@@ -6148,19 +6148,19 @@
       </c>
       <c r="D212" t="inlineStr">
         <is>
-          <t>Zuiderzeeweg</t>
+          <t>Hoekenes</t>
         </is>
       </c>
       <c r="E212" t="inlineStr">
         <is>
-          <t>POINT (4.9616961 52.3720001)</t>
+          <t>POINT (4.8018434 52.3524319)</t>
         </is>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>805087247</t>
+          <t>1081322915</t>
         </is>
       </c>
       <c r="B213" t="inlineStr">
@@ -6175,19 +6175,19 @@
       </c>
       <c r="D213" t="inlineStr">
         <is>
-          <t>Laan van Vlaanderen</t>
+          <t>Derkinderenstraat</t>
         </is>
       </c>
       <c r="E213" t="inlineStr">
         <is>
-          <t>POINT (4.816387 52.3464822)</t>
+          <t>POINT (4.8397482 52.3579573)</t>
         </is>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>881345030</t>
+          <t>1101710079</t>
         </is>
       </c>
       <c r="B214" t="inlineStr">
@@ -6202,19 +6202,19 @@
       </c>
       <c r="D214" t="inlineStr">
         <is>
-          <t>Hoekenes</t>
+          <t>Victorieplein</t>
         </is>
       </c>
       <c r="E214" t="inlineStr">
         <is>
-          <t>POINT (4.8018434 52.3524319)</t>
+          <t>POINT (4.9056743 52.3463657)</t>
         </is>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>1081322915</t>
+          <t>1101710093</t>
         </is>
       </c>
       <c r="B215" t="inlineStr">
@@ -6229,19 +6229,19 @@
       </c>
       <c r="D215" t="inlineStr">
         <is>
-          <t>Derkinderenstraat</t>
+          <t>Victorieplein</t>
         </is>
       </c>
       <c r="E215" t="inlineStr">
         <is>
-          <t>POINT (4.8397482 52.3579573)</t>
+          <t>POINT (4.905072 52.3467733)</t>
         </is>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>1101710079</t>
+          <t>1132284679</t>
         </is>
       </c>
       <c r="B216" t="inlineStr">
@@ -6256,19 +6256,19 @@
       </c>
       <c r="D216" t="inlineStr">
         <is>
-          <t>Victorieplein</t>
+          <t>Eerste Constantijn Huygensstraat</t>
         </is>
       </c>
       <c r="E216" t="inlineStr">
         <is>
-          <t>POINT (4.9056743 52.3463657)</t>
+          <t>POINT (4.8747145 52.3626163)</t>
         </is>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>1101710093</t>
+          <t>1262086564</t>
         </is>
       </c>
       <c r="B217" t="inlineStr">
@@ -6283,19 +6283,19 @@
       </c>
       <c r="D217" t="inlineStr">
         <is>
-          <t>Victorieplein</t>
+          <t>Camperstraat</t>
         </is>
       </c>
       <c r="E217" t="inlineStr">
         <is>
-          <t>POINT (4.905072 52.3467733)</t>
+          <t>POINT (4.9134821 52.358335)</t>
         </is>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>1132284679</t>
+          <t>1351089483</t>
         </is>
       </c>
       <c r="B218" t="inlineStr">
@@ -6310,19 +6310,19 @@
       </c>
       <c r="D218" t="inlineStr">
         <is>
-          <t>Eerste Constantijn Huygensstraat</t>
+          <t>Marco Polostraat</t>
         </is>
       </c>
       <c r="E218" t="inlineStr">
         <is>
-          <t>POINT (4.8747145 52.3626163)</t>
+          <t>POINT (4.8551084 52.3708621)</t>
         </is>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>1262086564</t>
+          <t>1491878698</t>
         </is>
       </c>
       <c r="B219" t="inlineStr">
@@ -6337,19 +6337,19 @@
       </c>
       <c r="D219" t="inlineStr">
         <is>
-          <t>Camperstraat</t>
+          <t>De Boelelaan/VU</t>
         </is>
       </c>
       <c r="E219" t="inlineStr">
         <is>
-          <t>POINT (4.9134821 52.358335)</t>
+          <t>POINT (4.8659833 52.3352308)</t>
         </is>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>1351089483</t>
+          <t>1534218534</t>
         </is>
       </c>
       <c r="B220" t="inlineStr">
@@ -6364,19 +6364,19 @@
       </c>
       <c r="D220" t="inlineStr">
         <is>
-          <t>Marco Polostraat</t>
+          <t>De Clercqstraat</t>
         </is>
       </c>
       <c r="E220" t="inlineStr">
         <is>
-          <t>POINT (4.8551084 52.3708621)</t>
+          <t>POINT (4.8705518 52.3712485)</t>
         </is>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>1491878698</t>
+          <t>1582427256</t>
         </is>
       </c>
       <c r="B221" t="inlineStr">
@@ -6391,19 +6391,19 @@
       </c>
       <c r="D221" t="inlineStr">
         <is>
-          <t>De Boelelaan/VU</t>
+          <t>Sloterpark</t>
         </is>
       </c>
       <c r="E221" t="inlineStr">
         <is>
-          <t>POINT (4.8659833 52.3352308)</t>
+          <t>POINT (4.8186019 52.3728449)</t>
         </is>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>1534218534</t>
+          <t>1584103895</t>
         </is>
       </c>
       <c r="B222" t="inlineStr">
@@ -6418,19 +6418,19 @@
       </c>
       <c r="D222" t="inlineStr">
         <is>
-          <t>De Clercqstraat</t>
+          <t>Amstelkade</t>
         </is>
       </c>
       <c r="E222" t="inlineStr">
         <is>
-          <t>POINT (4.8705518 52.3712485)</t>
+          <t>POINT (4.904043 52.34941)</t>
         </is>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>1582427256</t>
+          <t>1595259761</t>
         </is>
       </c>
       <c r="B223" t="inlineStr">
@@ -6445,19 +6445,19 @@
       </c>
       <c r="D223" t="inlineStr">
         <is>
-          <t>Sloterpark</t>
+          <t>Molukkenstraat</t>
         </is>
       </c>
       <c r="E223" t="inlineStr">
         <is>
-          <t>POINT (4.8186019 52.3728449)</t>
+          <t>POINT (4.9405051 52.3617404)</t>
         </is>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>1584103895</t>
+          <t>1618762410</t>
         </is>
       </c>
       <c r="B224" t="inlineStr">
@@ -6472,19 +6472,19 @@
       </c>
       <c r="D224" t="inlineStr">
         <is>
-          <t>Amstelkade</t>
+          <t>Leidseplein</t>
         </is>
       </c>
       <c r="E224" t="inlineStr">
         <is>
-          <t>POINT (4.904043 52.34941)</t>
+          <t>POINT (4.8830722 52.3634714)</t>
         </is>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>1595259761</t>
+          <t>1618775729</t>
         </is>
       </c>
       <c r="B225" t="inlineStr">
@@ -6499,19 +6499,19 @@
       </c>
       <c r="D225" t="inlineStr">
         <is>
-          <t>Molukkenstraat</t>
+          <t>Jan Pieter Heijestraat</t>
         </is>
       </c>
       <c r="E225" t="inlineStr">
         <is>
-          <t>POINT (4.9405051 52.3617404)</t>
+          <t>POINT (4.8666219 52.3605256)</t>
         </is>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>1618762410</t>
+          <t>1686005101</t>
         </is>
       </c>
       <c r="B226" t="inlineStr">
@@ -6526,19 +6526,19 @@
       </c>
       <c r="D226" t="inlineStr">
         <is>
-          <t>Leidseplein</t>
+          <t>Delflandlaan</t>
         </is>
       </c>
       <c r="E226" t="inlineStr">
         <is>
-          <t>POINT (4.8830722 52.3634714)</t>
+          <t>POINT (4.8416382 52.3515418)</t>
         </is>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>1618775729</t>
+          <t>1686005104</t>
         </is>
       </c>
       <c r="B227" t="inlineStr">
@@ -6553,19 +6553,19 @@
       </c>
       <c r="D227" t="inlineStr">
         <is>
-          <t>Jan Pieter Heijestraat</t>
+          <t>Delflandlaan</t>
         </is>
       </c>
       <c r="E227" t="inlineStr">
         <is>
-          <t>POINT (4.8666219 52.3605256)</t>
+          <t>POINT (4.83976 52.351558)</t>
         </is>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>1686005101</t>
+          <t>1690450992</t>
         </is>
       </c>
       <c r="B228" t="inlineStr">
@@ -6580,19 +6580,19 @@
       </c>
       <c r="D228" t="inlineStr">
         <is>
-          <t>Delflandlaan</t>
+          <t>Leidseplein</t>
         </is>
       </c>
       <c r="E228" t="inlineStr">
         <is>
-          <t>POINT (4.8416382 52.3515418)</t>
+          <t>POINT (4.8806933 52.3646825)</t>
         </is>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>1686005104</t>
+          <t>1716142293</t>
         </is>
       </c>
       <c r="B229" t="inlineStr">
@@ -6607,19 +6607,19 @@
       </c>
       <c r="D229" t="inlineStr">
         <is>
-          <t>Delflandlaan</t>
+          <t>Burgemeester Roëllstraat</t>
         </is>
       </c>
       <c r="E229" t="inlineStr">
         <is>
-          <t>POINT (4.83976 52.351558)</t>
+          <t>POINT (4.8194571 52.3766604)</t>
         </is>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>1690450992</t>
+          <t>1719343349</t>
         </is>
       </c>
       <c r="B230" t="inlineStr">
@@ -6634,19 +6634,19 @@
       </c>
       <c r="D230" t="inlineStr">
         <is>
-          <t>Leidseplein</t>
+          <t>Parnassusweg</t>
         </is>
       </c>
       <c r="E230" t="inlineStr">
         <is>
-          <t>POINT (4.8806933 52.3646825)</t>
+          <t>POINT (4.8687365 52.3380116)</t>
         </is>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>1716142293</t>
+          <t>1923327168</t>
         </is>
       </c>
       <c r="B231" t="inlineStr">
@@ -6661,19 +6661,19 @@
       </c>
       <c r="D231" t="inlineStr">
         <is>
-          <t>Burgemeester Roëllstraat</t>
+          <t>A. J. Ernststraat</t>
         </is>
       </c>
       <c r="E231" t="inlineStr">
         <is>
-          <t>POINT (4.8194571 52.3766604)</t>
+          <t>POINT (4.8688734 52.3329804)</t>
         </is>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>1719343349</t>
+          <t>1923339510</t>
         </is>
       </c>
       <c r="B232" t="inlineStr">
@@ -6688,19 +6688,19 @@
       </c>
       <c r="D232" t="inlineStr">
         <is>
-          <t>Parnassusweg</t>
+          <t>Oranjebaan</t>
         </is>
       </c>
       <c r="E232" t="inlineStr">
         <is>
-          <t>POINT (4.8687365 52.3380116)</t>
+          <t>POINT (4.8718747 52.3029279)</t>
         </is>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>1923327168</t>
+          <t>1923365101</t>
         </is>
       </c>
       <c r="B233" t="inlineStr">
@@ -6715,19 +6715,19 @@
       </c>
       <c r="D233" t="inlineStr">
         <is>
-          <t>A. J. Ernststraat</t>
+          <t>Meent</t>
         </is>
       </c>
       <c r="E233" t="inlineStr">
         <is>
-          <t>POINT (4.8688734 52.3329804)</t>
+          <t>POINT (4.8573912 52.2812036)</t>
         </is>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>1923339510</t>
+          <t>1923365119</t>
         </is>
       </c>
       <c r="B234" t="inlineStr">
@@ -6742,19 +6742,19 @@
       </c>
       <c r="D234" t="inlineStr">
         <is>
-          <t>Oranjebaan</t>
+          <t>Sacharovlaan</t>
         </is>
       </c>
       <c r="E234" t="inlineStr">
         <is>
-          <t>POINT (4.8718747 52.3029279)</t>
+          <t>POINT (4.8323277 52.2821847)</t>
         </is>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>1923365101</t>
+          <t>1978110960</t>
         </is>
       </c>
       <c r="B235" t="inlineStr">
@@ -6769,19 +6769,19 @@
       </c>
       <c r="D235" t="inlineStr">
         <is>
-          <t>Meent</t>
+          <t>Dijkgraafplein</t>
         </is>
       </c>
       <c r="E235" t="inlineStr">
         <is>
-          <t>POINT (4.8573912 52.2812036)</t>
+          <t>POINT (4.7870176 52.3555825)</t>
         </is>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>1923365119</t>
+          <t>1978110972</t>
         </is>
       </c>
       <c r="B236" t="inlineStr">
@@ -6796,19 +6796,19 @@
       </c>
       <c r="D236" t="inlineStr">
         <is>
-          <t>Sacharovlaan</t>
+          <t>Dijkgraafplein</t>
         </is>
       </c>
       <c r="E236" t="inlineStr">
         <is>
-          <t>POINT (4.8323277 52.2821847)</t>
+          <t>POINT (4.7864929 52.3554481)</t>
         </is>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>1978110960</t>
+          <t>1978358503</t>
         </is>
       </c>
       <c r="B237" t="inlineStr">
@@ -6823,19 +6823,19 @@
       </c>
       <c r="D237" t="inlineStr">
         <is>
-          <t>Dijkgraafplein</t>
+          <t>Valeriusplein</t>
         </is>
       </c>
       <c r="E237" t="inlineStr">
         <is>
-          <t>POINT (4.7870176 52.3555825)</t>
+          <t>POINT (4.8632955 52.3531864)</t>
         </is>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>1978110972</t>
+          <t>1978358521</t>
         </is>
       </c>
       <c r="B238" t="inlineStr">
@@ -6850,24 +6850,24 @@
       </c>
       <c r="D238" t="inlineStr">
         <is>
-          <t>Dijkgraafplein</t>
+          <t>Valeriusplein</t>
         </is>
       </c>
       <c r="E238" t="inlineStr">
         <is>
-          <t>POINT (4.7864929 52.3554481)</t>
+          <t>POINT (4.8637678 52.3533499)</t>
         </is>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>1978358496</t>
+          <t>1979187101</t>
         </is>
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>platform</t>
+          <t>stop_position</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
@@ -6877,19 +6877,19 @@
       </c>
       <c r="D239" t="inlineStr">
         <is>
-          <t>Valeriusplein</t>
+          <t>Pilatus</t>
         </is>
       </c>
       <c r="E239" t="inlineStr">
         <is>
-          <t>POINT (4.8633007 52.3531675)</t>
+          <t>POINT (4.776554 52.3530108)</t>
         </is>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>1978358503</t>
+          <t>1979187198</t>
         </is>
       </c>
       <c r="B240" t="inlineStr">
@@ -6904,19 +6904,19 @@
       </c>
       <c r="D240" t="inlineStr">
         <is>
-          <t>Valeriusplein</t>
+          <t>Inaristraat</t>
         </is>
       </c>
       <c r="E240" t="inlineStr">
         <is>
-          <t>POINT (4.8632955 52.3531864)</t>
+          <t>POINT (4.7829483 52.3504489)</t>
         </is>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>1978358521</t>
+          <t>2013949519</t>
         </is>
       </c>
       <c r="B241" t="inlineStr">
@@ -6931,24 +6931,24 @@
       </c>
       <c r="D241" t="inlineStr">
         <is>
-          <t>Valeriusplein</t>
+          <t>Muiderpoortstation</t>
         </is>
       </c>
       <c r="E241" t="inlineStr">
         <is>
-          <t>POINT (4.8637678 52.3533499)</t>
+          <t>POINT (4.9336328 52.3611749)</t>
         </is>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>1978358524</t>
+          <t>2020414930</t>
         </is>
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>platform</t>
+          <t>stop_position</t>
         </is>
       </c>
       <c r="C242" t="inlineStr">
@@ -6958,19 +6958,19 @@
       </c>
       <c r="D242" t="inlineStr">
         <is>
-          <t>Valeriusplein</t>
+          <t>Station Sloterdijk</t>
         </is>
       </c>
       <c r="E242" t="inlineStr">
         <is>
-          <t>POINT (4.863745 52.3533627)</t>
+          <t>POINT (4.8392172 52.3879696)</t>
         </is>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>1979187101</t>
+          <t>2020614094</t>
         </is>
       </c>
       <c r="B243" t="inlineStr">
@@ -6985,19 +6985,19 @@
       </c>
       <c r="D243" t="inlineStr">
         <is>
-          <t>Pilatus</t>
+          <t>Bilderdijkstraat</t>
         </is>
       </c>
       <c r="E243" t="inlineStr">
         <is>
-          <t>POINT (4.776554 52.3530108)</t>
+          <t>POINT (4.8725518 52.3673632)</t>
         </is>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>1979187198</t>
+          <t>2300172831</t>
         </is>
       </c>
       <c r="B244" t="inlineStr">
@@ -7012,19 +7012,19 @@
       </c>
       <c r="D244" t="inlineStr">
         <is>
-          <t>Inaristraat</t>
+          <t>Bloemgracht</t>
         </is>
       </c>
       <c r="E244" t="inlineStr">
         <is>
-          <t>POINT (4.7829483 52.3504489)</t>
+          <t>POINT (4.8763837 52.3742782)</t>
         </is>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>2013949519</t>
+          <t>2303104508</t>
         </is>
       </c>
       <c r="B245" t="inlineStr">
@@ -7039,24 +7039,24 @@
       </c>
       <c r="D245" t="inlineStr">
         <is>
-          <t>Muiderpoortstation</t>
+          <t>Kinkerstraat</t>
         </is>
       </c>
       <c r="E245" t="inlineStr">
         <is>
-          <t>POINT (4.9336328 52.3611749)</t>
+          <t>POINT (4.8722954 52.3670831)</t>
         </is>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>2020386507</t>
+          <t>2316881859</t>
         </is>
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>platform</t>
+          <t>stop_position</t>
         </is>
       </c>
       <c r="C246" t="inlineStr">
@@ -7066,19 +7066,19 @@
       </c>
       <c r="D246" t="inlineStr">
         <is>
-          <t>Bos en Lommerplein</t>
+          <t>Centraal Station</t>
         </is>
       </c>
       <c r="E246" t="inlineStr">
         <is>
-          <t>POINT (4.8449423 52.3777943)</t>
+          <t>POINT (4.9003434 52.3778058)</t>
         </is>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>2020414930</t>
+          <t>2316881868</t>
         </is>
       </c>
       <c r="B247" t="inlineStr">
@@ -7093,19 +7093,19 @@
       </c>
       <c r="D247" t="inlineStr">
         <is>
-          <t>Station Sloterdijk</t>
+          <t>Centraal Station</t>
         </is>
       </c>
       <c r="E247" t="inlineStr">
         <is>
-          <t>POINT (4.8392172 52.3879696)</t>
+          <t>POINT (4.9003629 52.3778505)</t>
         </is>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>2020614094</t>
+          <t>2421932411</t>
         </is>
       </c>
       <c r="B248" t="inlineStr">
@@ -7120,19 +7120,19 @@
       </c>
       <c r="D248" t="inlineStr">
         <is>
-          <t>Bilderdijkstraat</t>
+          <t>Bos en Lommerweg</t>
         </is>
       </c>
       <c r="E248" t="inlineStr">
         <is>
-          <t>POINT (4.8725518 52.3673632)</t>
+          <t>POINT (4.8552771 52.3803006)</t>
         </is>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>2300172831</t>
+          <t>2421932426</t>
         </is>
       </c>
       <c r="B249" t="inlineStr">
@@ -7147,19 +7147,19 @@
       </c>
       <c r="D249" t="inlineStr">
         <is>
-          <t>Bloemgracht</t>
+          <t>Wiltzanghlaan</t>
         </is>
       </c>
       <c r="E249" t="inlineStr">
         <is>
-          <t>POINT (4.8763837 52.3742782)</t>
+          <t>POINT (4.8522251 52.3820439)</t>
         </is>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>2303104508</t>
+          <t>2672742552</t>
         </is>
       </c>
       <c r="B250" t="inlineStr">
@@ -7174,19 +7174,19 @@
       </c>
       <c r="D250" t="inlineStr">
         <is>
-          <t>Kinkerstraat</t>
+          <t>Dam</t>
         </is>
       </c>
       <c r="E250" t="inlineStr">
         <is>
-          <t>POINT (4.8722954 52.3670831)</t>
+          <t>POINT (4.8953791 52.3748676)</t>
         </is>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>2316881859</t>
+          <t>2672749411</t>
         </is>
       </c>
       <c r="B251" t="inlineStr">
@@ -7201,19 +7201,19 @@
       </c>
       <c r="D251" t="inlineStr">
         <is>
-          <t>Centraal Station</t>
+          <t>Rokin</t>
         </is>
       </c>
       <c r="E251" t="inlineStr">
         <is>
-          <t>POINT (4.9003434 52.3778058)</t>
+          <t>POINT (4.8921252 52.3694572)</t>
         </is>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>2316881868</t>
+          <t>2672749474</t>
         </is>
       </c>
       <c r="B252" t="inlineStr">
@@ -7228,19 +7228,19 @@
       </c>
       <c r="D252" t="inlineStr">
         <is>
-          <t>Centraal Station</t>
+          <t>Rokin</t>
         </is>
       </c>
       <c r="E252" t="inlineStr">
         <is>
-          <t>POINT (4.9003629 52.3778505)</t>
+          <t>POINT (4.892274 52.3697221)</t>
         </is>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>2421932411</t>
+          <t>2672987276</t>
         </is>
       </c>
       <c r="B253" t="inlineStr">
@@ -7255,19 +7255,19 @@
       </c>
       <c r="D253" t="inlineStr">
         <is>
-          <t>Bos en Lommerweg</t>
+          <t>Rembrandtplein</t>
         </is>
       </c>
       <c r="E253" t="inlineStr">
         <is>
-          <t>POINT (4.8552771 52.3803006)</t>
+          <t>POINT (4.8964238 52.3662601)</t>
         </is>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>2421932426</t>
+          <t>2672987288</t>
         </is>
       </c>
       <c r="B254" t="inlineStr">
@@ -7282,19 +7282,19 @@
       </c>
       <c r="D254" t="inlineStr">
         <is>
-          <t>Wiltzanghlaan</t>
+          <t>Waterlooplein</t>
         </is>
       </c>
       <c r="E254" t="inlineStr">
         <is>
-          <t>POINT (4.8522251 52.3820439)</t>
+          <t>POINT (4.9022284 52.3671715)</t>
         </is>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>2672742552</t>
+          <t>2673071058</t>
         </is>
       </c>
       <c r="B255" t="inlineStr">
@@ -7309,19 +7309,19 @@
       </c>
       <c r="D255" t="inlineStr">
         <is>
-          <t>Dam</t>
+          <t>Vijzelgracht</t>
         </is>
       </c>
       <c r="E255" t="inlineStr">
         <is>
-          <t>POINT (4.8953791 52.3748676)</t>
+          <t>POINT (4.8910303 52.3600132)</t>
         </is>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>2672749411</t>
+          <t>2673071064</t>
         </is>
       </c>
       <c r="B256" t="inlineStr">
@@ -7336,19 +7336,19 @@
       </c>
       <c r="D256" t="inlineStr">
         <is>
-          <t>Rokin</t>
+          <t>Meester Visserplein</t>
         </is>
       </c>
       <c r="E256" t="inlineStr">
         <is>
-          <t>POINT (4.8921252 52.3694572)</t>
+          <t>POINT (4.9058474 52.3677535)</t>
         </is>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>2672749474</t>
+          <t>2673071086</t>
         </is>
       </c>
       <c r="B257" t="inlineStr">
@@ -7363,19 +7363,19 @@
       </c>
       <c r="D257" t="inlineStr">
         <is>
-          <t>Rokin</t>
+          <t>Artis</t>
         </is>
       </c>
       <c r="E257" t="inlineStr">
         <is>
-          <t>POINT (4.892274 52.3697221)</t>
+          <t>POINT (4.9113237 52.3665623)</t>
         </is>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>2672987276</t>
+          <t>2673087141</t>
         </is>
       </c>
       <c r="B258" t="inlineStr">
@@ -7390,19 +7390,19 @@
       </c>
       <c r="D258" t="inlineStr">
         <is>
-          <t>Rembrandtplein</t>
+          <t>Keizersgracht</t>
         </is>
       </c>
       <c r="E258" t="inlineStr">
         <is>
-          <t>POINT (4.8964238 52.3662601)</t>
+          <t>POINT (4.8982915 52.3637916)</t>
         </is>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>2672987288</t>
+          <t>2673087152</t>
         </is>
       </c>
       <c r="B259" t="inlineStr">
@@ -7417,19 +7417,19 @@
       </c>
       <c r="D259" t="inlineStr">
         <is>
-          <t>Waterlooplein</t>
+          <t>Frederiksplein</t>
         </is>
       </c>
       <c r="E259" t="inlineStr">
         <is>
-          <t>POINT (4.9022284 52.3671715)</t>
+          <t>POINT (4.8989049 52.3590024)</t>
         </is>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>2673071058</t>
+          <t>2673087196</t>
         </is>
       </c>
       <c r="B260" t="inlineStr">
@@ -7444,19 +7444,19 @@
       </c>
       <c r="D260" t="inlineStr">
         <is>
-          <t>Vijzelgracht</t>
+          <t>Ceintuurbaan</t>
         </is>
       </c>
       <c r="E260" t="inlineStr">
         <is>
-          <t>POINT (4.8910303 52.3600132)</t>
+          <t>POINT (4.9010669 52.3550346)</t>
         </is>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>2673071064</t>
+          <t>2673087253</t>
         </is>
       </c>
       <c r="B261" t="inlineStr">
@@ -7471,19 +7471,19 @@
       </c>
       <c r="D261" t="inlineStr">
         <is>
-          <t>Meester Visserplein</t>
+          <t>Lutmastraat</t>
         </is>
       </c>
       <c r="E261" t="inlineStr">
         <is>
-          <t>POINT (4.9058474 52.3677535)</t>
+          <t>POINT (4.90332 52.3514501)</t>
         </is>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>2673071086</t>
+          <t>2673092648</t>
         </is>
       </c>
       <c r="B262" t="inlineStr">
@@ -7498,19 +7498,19 @@
       </c>
       <c r="D262" t="inlineStr">
         <is>
-          <t>Artis</t>
+          <t>Victorieplein</t>
         </is>
       </c>
       <c r="E262" t="inlineStr">
         <is>
-          <t>POINT (4.9113237 52.3665623)</t>
+          <t>POINT (4.9051006 52.3465873)</t>
         </is>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>2673087141</t>
+          <t>2673092651</t>
         </is>
       </c>
       <c r="B263" t="inlineStr">
@@ -7525,19 +7525,19 @@
       </c>
       <c r="D263" t="inlineStr">
         <is>
-          <t>Keizersgracht</t>
+          <t>Amstelkade</t>
         </is>
       </c>
       <c r="E263" t="inlineStr">
         <is>
-          <t>POINT (4.8982915 52.3637916)</t>
+          <t>POINT (4.9043407 52.3487259)</t>
         </is>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>2673087152</t>
+          <t>2674521917</t>
         </is>
       </c>
       <c r="B264" t="inlineStr">
@@ -7552,19 +7552,19 @@
       </c>
       <c r="D264" t="inlineStr">
         <is>
-          <t>Frederiksplein</t>
+          <t>Plantage Lepellaan</t>
         </is>
       </c>
       <c r="E264" t="inlineStr">
         <is>
-          <t>POINT (4.8989049 52.3590024)</t>
+          <t>POINT (4.9155317 52.3651045)</t>
         </is>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>2673087196</t>
+          <t>2674521942</t>
         </is>
       </c>
       <c r="B265" t="inlineStr">
@@ -7579,19 +7579,19 @@
       </c>
       <c r="D265" t="inlineStr">
         <is>
-          <t>Ceintuurbaan</t>
+          <t>Alexanderplein</t>
         </is>
       </c>
       <c r="E265" t="inlineStr">
         <is>
-          <t>POINT (4.9010669 52.3550346)</t>
+          <t>POINT (4.9196097 52.3634343)</t>
         </is>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>2673087253</t>
+          <t>2674521943</t>
         </is>
       </c>
       <c r="B266" t="inlineStr">
@@ -7606,19 +7606,19 @@
       </c>
       <c r="D266" t="inlineStr">
         <is>
-          <t>Lutmastraat</t>
+          <t>Plantage Lepellaan</t>
         </is>
       </c>
       <c r="E266" t="inlineStr">
         <is>
-          <t>POINT (4.90332 52.3514501)</t>
+          <t>POINT (4.9152768 52.3652225)</t>
         </is>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>2673092648</t>
+          <t>2674521954</t>
         </is>
       </c>
       <c r="B267" t="inlineStr">
@@ -7633,19 +7633,19 @@
       </c>
       <c r="D267" t="inlineStr">
         <is>
-          <t>Victorieplein</t>
+          <t>Eerste Van Swindenstraat</t>
         </is>
       </c>
       <c r="E267" t="inlineStr">
         <is>
-          <t>POINT (4.9051006 52.3465873)</t>
+          <t>POINT (4.9238286 52.3621936)</t>
         </is>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>2673092651</t>
+          <t>2674521961</t>
         </is>
       </c>
       <c r="B268" t="inlineStr">
@@ -7660,19 +7660,19 @@
       </c>
       <c r="D268" t="inlineStr">
         <is>
-          <t>Amstelkade</t>
+          <t>Eerste Van Swindenstraat</t>
         </is>
       </c>
       <c r="E268" t="inlineStr">
         <is>
-          <t>POINT (4.9043407 52.3487259)</t>
+          <t>POINT (4.9241559 52.361616)</t>
         </is>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>2674521917</t>
+          <t>2674521970</t>
         </is>
       </c>
       <c r="B269" t="inlineStr">
@@ -7687,19 +7687,19 @@
       </c>
       <c r="D269" t="inlineStr">
         <is>
-          <t>Plantage Lepellaan</t>
+          <t>Wijttenbachstraat</t>
         </is>
       </c>
       <c r="E269" t="inlineStr">
         <is>
-          <t>POINT (4.9155317 52.3651045)</t>
+          <t>POINT (4.9250867 52.360259)</t>
         </is>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>2674521942</t>
+          <t>2674521976</t>
         </is>
       </c>
       <c r="B270" t="inlineStr">
@@ -7714,19 +7714,19 @@
       </c>
       <c r="D270" t="inlineStr">
         <is>
-          <t>Alexanderplein</t>
+          <t>Oostpoort</t>
         </is>
       </c>
       <c r="E270" t="inlineStr">
         <is>
-          <t>POINT (4.9196097 52.3634343)</t>
+          <t>POINT (4.9269018 52.3574383)</t>
         </is>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>2674521943</t>
+          <t>2674538480</t>
         </is>
       </c>
       <c r="B271" t="inlineStr">
@@ -7741,19 +7741,19 @@
       </c>
       <c r="D271" t="inlineStr">
         <is>
-          <t>Plantage Lepellaan</t>
+          <t>Arent Krijtsstraat</t>
         </is>
       </c>
       <c r="E271" t="inlineStr">
         <is>
-          <t>POINT (4.9152768 52.3652225)</t>
+          <t>POINT (4.9546574 52.33957)</t>
         </is>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>2674521954</t>
+          <t>2674543283</t>
         </is>
       </c>
       <c r="B272" t="inlineStr">
@@ -7768,19 +7768,19 @@
       </c>
       <c r="D272" t="inlineStr">
         <is>
-          <t>Eerste Van Swindenstraat</t>
+          <t>Hugo de Vrieslaan</t>
         </is>
       </c>
       <c r="E272" t="inlineStr">
         <is>
-          <t>POINT (4.9238286 52.3621936)</t>
+          <t>POINT (4.934801 52.351066)</t>
         </is>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>2674521961</t>
+          <t>2674543285</t>
         </is>
       </c>
       <c r="B273" t="inlineStr">
@@ -7795,19 +7795,19 @@
       </c>
       <c r="D273" t="inlineStr">
         <is>
-          <t>Eerste Van Swindenstraat</t>
+          <t>Kruislaan</t>
         </is>
       </c>
       <c r="E273" t="inlineStr">
         <is>
-          <t>POINT (4.9241559 52.361616)</t>
+          <t>POINT (4.9404536 52.3476135)</t>
         </is>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>2674521970</t>
+          <t>2674543286</t>
         </is>
       </c>
       <c r="B274" t="inlineStr">
@@ -7822,19 +7822,19 @@
       </c>
       <c r="D274" t="inlineStr">
         <is>
-          <t>Wijttenbachstraat</t>
+          <t>Brinkstraat</t>
         </is>
       </c>
       <c r="E274" t="inlineStr">
         <is>
-          <t>POINT (4.9250867 52.360259)</t>
+          <t>POINT (4.9478959 52.3428971)</t>
         </is>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>2674521976</t>
+          <t>2674767992</t>
         </is>
       </c>
       <c r="B275" t="inlineStr">
@@ -7849,19 +7849,19 @@
       </c>
       <c r="D275" t="inlineStr">
         <is>
-          <t>Oostpoort</t>
+          <t>Muziekgebouw</t>
         </is>
       </c>
       <c r="E275" t="inlineStr">
         <is>
-          <t>POINT (4.9269018 52.3574383)</t>
+          <t>POINT (4.912547 52.3772761)</t>
         </is>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>2674538480</t>
+          <t>2674855304</t>
         </is>
       </c>
       <c r="B276" t="inlineStr">
@@ -7876,19 +7876,19 @@
       </c>
       <c r="D276" t="inlineStr">
         <is>
-          <t>Arent Krijtsstraat</t>
+          <t>Rietlandpark</t>
         </is>
       </c>
       <c r="E276" t="inlineStr">
         <is>
-          <t>POINT (4.9546574 52.33957)</t>
+          <t>POINT (4.9340409 52.3729896)</t>
         </is>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>2674543283</t>
+          <t>2674855327</t>
         </is>
       </c>
       <c r="B277" t="inlineStr">
@@ -7903,19 +7903,19 @@
       </c>
       <c r="D277" t="inlineStr">
         <is>
-          <t>Hugo de Vrieslaan</t>
+          <t>Zuiderzeeweg</t>
         </is>
       </c>
       <c r="E277" t="inlineStr">
         <is>
-          <t>POINT (4.934801 52.351066)</t>
+          <t>POINT (4.9616739 52.3719706)</t>
         </is>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>2674543285</t>
+          <t>2674999726</t>
         </is>
       </c>
       <c r="B278" t="inlineStr">
@@ -7930,19 +7930,19 @@
       </c>
       <c r="D278" t="inlineStr">
         <is>
-          <t>Kruislaan</t>
+          <t>Koningsplein</t>
         </is>
       </c>
       <c r="E278" t="inlineStr">
         <is>
-          <t>POINT (4.9404536 52.3476135)</t>
+          <t>POINT (4.8889206 52.368085)</t>
         </is>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>2674543286</t>
+          <t>2677256520</t>
         </is>
       </c>
       <c r="B279" t="inlineStr">
@@ -7957,19 +7957,19 @@
       </c>
       <c r="D279" t="inlineStr">
         <is>
-          <t>Brinkstraat</t>
+          <t>Bob Haarmslaan</t>
         </is>
       </c>
       <c r="E279" t="inlineStr">
         <is>
-          <t>POINT (4.9478959 52.3428971)</t>
+          <t>POINT (4.968548 52.369133)</t>
         </is>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>2674767992</t>
+          <t>2677256600</t>
         </is>
       </c>
       <c r="B280" t="inlineStr">
@@ -7984,19 +7984,19 @@
       </c>
       <c r="D280" t="inlineStr">
         <is>
-          <t>Muziekgebouw</t>
+          <t>Diemerparklaan</t>
         </is>
       </c>
       <c r="E280" t="inlineStr">
         <is>
-          <t>POINT (4.912547 52.3772761)</t>
+          <t>POINT (4.9946247 52.3555154)</t>
         </is>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>2674855304</t>
+          <t>2678427768</t>
         </is>
       </c>
       <c r="B281" t="inlineStr">
@@ -8011,19 +8011,19 @@
       </c>
       <c r="D281" t="inlineStr">
         <is>
-          <t>Rietlandpark</t>
+          <t>Kattenburgerstraat</t>
         </is>
       </c>
       <c r="E281" t="inlineStr">
         <is>
-          <t>POINT (4.9340409 52.3729896)</t>
+          <t>POINT (4.9211099 52.3761672)</t>
         </is>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>2674855327</t>
+          <t>2678427769</t>
         </is>
       </c>
       <c r="B282" t="inlineStr">
@@ -8038,19 +8038,19 @@
       </c>
       <c r="D282" t="inlineStr">
         <is>
-          <t>Zuiderzeeweg</t>
+          <t>Diemerparklaan</t>
         </is>
       </c>
       <c r="E282" t="inlineStr">
         <is>
-          <t>POINT (4.9616739 52.3719706)</t>
+          <t>POINT (4.9958806 52.3549103)</t>
         </is>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>2674999726</t>
+          <t>2678427770</t>
         </is>
       </c>
       <c r="B283" t="inlineStr">
@@ -8065,19 +8065,19 @@
       </c>
       <c r="D283" t="inlineStr">
         <is>
-          <t>Koningsplein</t>
+          <t>Lumièrestraat</t>
         </is>
       </c>
       <c r="E283" t="inlineStr">
         <is>
-          <t>POINT (4.8889206 52.368085)</t>
+          <t>POINT (5.0002302 52.3525961)</t>
         </is>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>2677256520</t>
+          <t>2678427771</t>
         </is>
       </c>
       <c r="B284" t="inlineStr">
@@ -8092,19 +8092,19 @@
       </c>
       <c r="D284" t="inlineStr">
         <is>
-          <t>Bob Haarmslaan</t>
+          <t>Lumièrestraat</t>
         </is>
       </c>
       <c r="E284" t="inlineStr">
         <is>
-          <t>POINT (4.968548 52.369133)</t>
+          <t>POINT (4.9990167 52.3531807)</t>
         </is>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>2677256600</t>
+          <t>2763733921</t>
         </is>
       </c>
       <c r="B285" t="inlineStr">
@@ -8119,19 +8119,19 @@
       </c>
       <c r="D285" t="inlineStr">
         <is>
-          <t>Diemerparklaan</t>
+          <t>Bloemgracht</t>
         </is>
       </c>
       <c r="E285" t="inlineStr">
         <is>
-          <t>POINT (4.9946247 52.3555154)</t>
+          <t>POINT (4.876516 52.3744189)</t>
         </is>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>2678427768</t>
+          <t>2941113425</t>
         </is>
       </c>
       <c r="B286" t="inlineStr">
@@ -8146,19 +8146,19 @@
       </c>
       <c r="D286" t="inlineStr">
         <is>
-          <t>Kattenburgerstraat</t>
+          <t>Molenwerf</t>
         </is>
       </c>
       <c r="E286" t="inlineStr">
         <is>
-          <t>POINT (4.9211099 52.3761672)</t>
+          <t>POINT (4.8461556 52.3858895)</t>
         </is>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>2678427769</t>
+          <t>2987217066</t>
         </is>
       </c>
       <c r="B287" t="inlineStr">
@@ -8173,19 +8173,19 @@
       </c>
       <c r="D287" t="inlineStr">
         <is>
-          <t>Diemerparklaan</t>
+          <t>Javaplein</t>
         </is>
       </c>
       <c r="E287" t="inlineStr">
         <is>
-          <t>POINT (4.9958806 52.3549103)</t>
+          <t>POINT (4.9385662 52.3640547)</t>
         </is>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>2678427770</t>
+          <t>2987217067</t>
         </is>
       </c>
       <c r="B288" t="inlineStr">
@@ -8200,19 +8200,19 @@
       </c>
       <c r="D288" t="inlineStr">
         <is>
-          <t>Lumièrestraat</t>
+          <t>Javaplein</t>
         </is>
       </c>
       <c r="E288" t="inlineStr">
         <is>
-          <t>POINT (5.0002302 52.3525961)</t>
+          <t>POINT (4.9382411 52.3641725)</t>
         </is>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>2678427771</t>
+          <t>3011895788</t>
         </is>
       </c>
       <c r="B289" t="inlineStr">
@@ -8227,19 +8227,19 @@
       </c>
       <c r="D289" t="inlineStr">
         <is>
-          <t>Lumièrestraat</t>
+          <t>C. van Eesterenlaan</t>
         </is>
       </c>
       <c r="E289" t="inlineStr">
         <is>
-          <t>POINT (4.9990167 52.3531807)</t>
+          <t>POINT (4.9381702 52.3734596)</t>
         </is>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>2763733921</t>
+          <t>3078329917</t>
         </is>
       </c>
       <c r="B290" t="inlineStr">
@@ -8252,21 +8252,17 @@
           <t>yes</t>
         </is>
       </c>
-      <c r="D290" t="inlineStr">
-        <is>
-          <t>Bloemgracht</t>
-        </is>
-      </c>
+      <c r="D290" t="inlineStr"/>
       <c r="E290" t="inlineStr">
         <is>
-          <t>POINT (4.876516 52.3744189)</t>
+          <t>POINT (4.9634834 52.3713049)</t>
         </is>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>2941113425</t>
+          <t>3078345542</t>
         </is>
       </c>
       <c r="B291" t="inlineStr">
@@ -8281,19 +8277,19 @@
       </c>
       <c r="D291" t="inlineStr">
         <is>
-          <t>Molenwerf</t>
+          <t>Steigereiland</t>
         </is>
       </c>
       <c r="E291" t="inlineStr">
         <is>
-          <t>POINT (4.8461556 52.3858895)</t>
+          <t>POINT (4.9810143 52.3627073)</t>
         </is>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>2987217066</t>
+          <t>3078345543</t>
         </is>
       </c>
       <c r="B292" t="inlineStr">
@@ -8308,19 +8304,19 @@
       </c>
       <c r="D292" t="inlineStr">
         <is>
-          <t>Javaplein</t>
+          <t>Steigereiland</t>
         </is>
       </c>
       <c r="E292" t="inlineStr">
         <is>
-          <t>POINT (4.9385662 52.3640547)</t>
+          <t>POINT (4.9799507 52.3632345)</t>
         </is>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>2987217067</t>
+          <t>3157939483</t>
         </is>
       </c>
       <c r="B293" t="inlineStr">
@@ -8335,24 +8331,24 @@
       </c>
       <c r="D293" t="inlineStr">
         <is>
-          <t>Javaplein</t>
+          <t>Dam</t>
         </is>
       </c>
       <c r="E293" t="inlineStr">
         <is>
-          <t>POINT (4.9382411 52.3641725)</t>
+          <t>POINT (4.8901788 52.3731865)</t>
         </is>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>3011895787</t>
+          <t>3157939509</t>
         </is>
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>platform</t>
+          <t>stop_position</t>
         </is>
       </c>
       <c r="C294" t="inlineStr">
@@ -8362,19 +8358,19 @@
       </c>
       <c r="D294" t="inlineStr">
         <is>
-          <t>C. van Eesterenlaan</t>
+          <t>Paleisstraat</t>
         </is>
       </c>
       <c r="E294" t="inlineStr">
         <is>
-          <t>POINT (4.9388387 52.3735854)</t>
+          <t>POINT (4.890657 52.372357)</t>
         </is>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>3011895788</t>
+          <t>3178067303</t>
         </is>
       </c>
       <c r="B295" t="inlineStr">
@@ -8389,19 +8385,19 @@
       </c>
       <c r="D295" t="inlineStr">
         <is>
-          <t>C. van Eesterenlaan</t>
+          <t>Rembrandtplein</t>
         </is>
       </c>
       <c r="E295" t="inlineStr">
         <is>
-          <t>POINT (4.9381702 52.3734596)</t>
+          <t>POINT (4.8968199 52.3662292)</t>
         </is>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>3078329917</t>
+          <t>3185290417</t>
         </is>
       </c>
       <c r="B296" t="inlineStr">
@@ -8414,17 +8410,21 @@
           <t>yes</t>
         </is>
       </c>
-      <c r="D296" t="inlineStr"/>
+      <c r="D296" t="inlineStr">
+        <is>
+          <t>Rozengracht</t>
+        </is>
+      </c>
       <c r="E296" t="inlineStr">
         <is>
-          <t>POINT (4.9634834 52.3713049)</t>
+          <t>POINT (4.875944 52.3718196)</t>
         </is>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>3078345542</t>
+          <t>3185460780</t>
         </is>
       </c>
       <c r="B297" t="inlineStr">
@@ -8439,19 +8439,19 @@
       </c>
       <c r="D297" t="inlineStr">
         <is>
-          <t>Steigereiland</t>
+          <t>Marnixstraat</t>
         </is>
       </c>
       <c r="E297" t="inlineStr">
         <is>
-          <t>POINT (4.9810143 52.3627073)</t>
+          <t>POINT (4.8752838 52.3720538)</t>
         </is>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>3078345543</t>
+          <t>3294629035</t>
         </is>
       </c>
       <c r="B298" t="inlineStr">
@@ -8466,19 +8466,19 @@
       </c>
       <c r="D298" t="inlineStr">
         <is>
-          <t>Steigereiland</t>
+          <t>Ceintuurbaan</t>
         </is>
       </c>
       <c r="E298" t="inlineStr">
         <is>
-          <t>POINT (4.9799507 52.3632345)</t>
+          <t>POINT (4.9014422 52.3545776)</t>
         </is>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>3157939483</t>
+          <t>3294629036</t>
         </is>
       </c>
       <c r="B299" t="inlineStr">
@@ -8493,19 +8493,19 @@
       </c>
       <c r="D299" t="inlineStr">
         <is>
-          <t>Dam</t>
+          <t>Dintelstraat</t>
         </is>
       </c>
       <c r="E299" t="inlineStr">
         <is>
-          <t>POINT (4.8901788 52.3731865)</t>
+          <t>POINT (4.893324 52.341887)</t>
         </is>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>3157939509</t>
+          <t>3294629037</t>
         </is>
       </c>
       <c r="B300" t="inlineStr">
@@ -8520,19 +8520,19 @@
       </c>
       <c r="D300" t="inlineStr">
         <is>
-          <t>Paleisstraat</t>
+          <t>Europaplein</t>
         </is>
       </c>
       <c r="E300" t="inlineStr">
         <is>
-          <t>POINT (4.890657 52.372357)</t>
+          <t>POINT (4.8922816 52.3404324)</t>
         </is>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>3178067303</t>
+          <t>3294629038</t>
         </is>
       </c>
       <c r="B301" t="inlineStr">
@@ -8547,19 +8547,19 @@
       </c>
       <c r="D301" t="inlineStr">
         <is>
-          <t>Rembrandtplein</t>
+          <t>Station RAI</t>
         </is>
       </c>
       <c r="E301" t="inlineStr">
         <is>
-          <t>POINT (4.8968199 52.3662292)</t>
+          <t>POINT (4.8906393 52.3369161)</t>
         </is>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>3185290417</t>
+          <t>3294629045</t>
         </is>
       </c>
       <c r="B302" t="inlineStr">
@@ -8574,19 +8574,19 @@
       </c>
       <c r="D302" t="inlineStr">
         <is>
-          <t>Rozengracht</t>
+          <t>Drentepark</t>
         </is>
       </c>
       <c r="E302" t="inlineStr">
         <is>
-          <t>POINT (4.875944 52.3718196)</t>
+          <t>POINT (4.889801 52.3362207)</t>
         </is>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>3185460780</t>
+          <t>3294945446</t>
         </is>
       </c>
       <c r="B303" t="inlineStr">
@@ -8601,19 +8601,19 @@
       </c>
       <c r="D303" t="inlineStr">
         <is>
-          <t>Marnixstraat</t>
+          <t>Amsteldijk</t>
         </is>
       </c>
       <c r="E303" t="inlineStr">
         <is>
-          <t>POINT (4.8752838 52.3720538)</t>
+          <t>POINT (4.9111583 52.3471037)</t>
         </is>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>3294629035</t>
+          <t>3294945448</t>
         </is>
       </c>
       <c r="B304" t="inlineStr">
@@ -8628,19 +8628,19 @@
       </c>
       <c r="D304" t="inlineStr">
         <is>
-          <t>Ceintuurbaan</t>
+          <t>Cornelis Troostplein</t>
         </is>
       </c>
       <c r="E304" t="inlineStr">
         <is>
-          <t>POINT (4.9014422 52.3545776)</t>
+          <t>POINT (4.8915363 52.350302)</t>
         </is>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>3294629036</t>
+          <t>3294946408</t>
         </is>
       </c>
       <c r="B305" t="inlineStr">
@@ -8655,19 +8655,19 @@
       </c>
       <c r="D305" t="inlineStr">
         <is>
-          <t>Dintelstraat</t>
+          <t>Willem de Zwijgerlaan</t>
         </is>
       </c>
       <c r="E305" t="inlineStr">
         <is>
-          <t>POINT (4.893324 52.341887)</t>
+          <t>POINT (4.8641586 52.3704221)</t>
         </is>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>3294629037</t>
+          <t>3294946425</t>
         </is>
       </c>
       <c r="B306" t="inlineStr">
@@ -8682,19 +8682,19 @@
       </c>
       <c r="D306" t="inlineStr">
         <is>
-          <t>Europaplein</t>
+          <t>Admiraal De Ruijterweg</t>
         </is>
       </c>
       <c r="E306" t="inlineStr">
         <is>
-          <t>POINT (4.8922816 52.3404324)</t>
+          <t>POINT (4.8604577 52.3713902)</t>
         </is>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>3294629038</t>
+          <t>3294946637</t>
         </is>
       </c>
       <c r="B307" t="inlineStr">
@@ -8709,19 +8709,19 @@
       </c>
       <c r="D307" t="inlineStr">
         <is>
-          <t>Station RAI</t>
+          <t>Kinkerstraat</t>
         </is>
       </c>
       <c r="E307" t="inlineStr">
         <is>
-          <t>POINT (4.8906393 52.3369161)</t>
+          <t>POINT (4.8719933 52.3674579)</t>
         </is>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>3294629045</t>
+          <t>3295383111</t>
         </is>
       </c>
       <c r="B308" t="inlineStr">
@@ -8736,19 +8736,19 @@
       </c>
       <c r="D308" t="inlineStr">
         <is>
-          <t>Drentepark</t>
+          <t>Bilderdijkstraat</t>
         </is>
       </c>
       <c r="E308" t="inlineStr">
         <is>
-          <t>POINT (4.889801 52.3362207)</t>
+          <t>POINT (4.8698359 52.3708243)</t>
         </is>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>3294945446</t>
+          <t>3295383113</t>
         </is>
       </c>
       <c r="B309" t="inlineStr">
@@ -8763,19 +8763,19 @@
       </c>
       <c r="D309" t="inlineStr">
         <is>
-          <t>Amsteldijk</t>
+          <t>De Pijp</t>
         </is>
       </c>
       <c r="E309" t="inlineStr">
         <is>
-          <t>POINT (4.9111583 52.3471037)</t>
+          <t>POINT (4.8905961 52.3527058)</t>
         </is>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>3294945448</t>
+          <t>3295383114</t>
         </is>
       </c>
       <c r="B310" t="inlineStr">
@@ -8790,19 +8790,19 @@
       </c>
       <c r="D310" t="inlineStr">
         <is>
-          <t>Cornelis Troostplein</t>
+          <t>Overtoom/ 1e C. Huygensstraat</t>
         </is>
       </c>
       <c r="E310" t="inlineStr">
         <is>
-          <t>POINT (4.8915363 52.350302)</t>
+          <t>POINT (4.8750893 52.3630125)</t>
         </is>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>3294946408</t>
+          <t>3295383115</t>
         </is>
       </c>
       <c r="B311" t="inlineStr">
@@ -8817,19 +8817,19 @@
       </c>
       <c r="D311" t="inlineStr">
         <is>
-          <t>Willem de Zwijgerlaan</t>
+          <t>Overtoom/ 1e C. Huygensstraat</t>
         </is>
       </c>
       <c r="E311" t="inlineStr">
         <is>
-          <t>POINT (4.8641586 52.3704221)</t>
+          <t>POINT (4.8749794 52.363227)</t>
         </is>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>3294946425</t>
+          <t>3295383116</t>
         </is>
       </c>
       <c r="B312" t="inlineStr">
@@ -8844,19 +8844,19 @@
       </c>
       <c r="D312" t="inlineStr">
         <is>
-          <t>Admiraal De Ruijterweg</t>
+          <t>Scheldestraat</t>
         </is>
       </c>
       <c r="E312" t="inlineStr">
         <is>
-          <t>POINT (4.8604577 52.3713902)</t>
+          <t>POINT (4.8911566 52.3474774)</t>
         </is>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>3294946637</t>
+          <t>3295383117</t>
         </is>
       </c>
       <c r="B313" t="inlineStr">
@@ -8871,19 +8871,19 @@
       </c>
       <c r="D313" t="inlineStr">
         <is>
-          <t>Kinkerstraat</t>
+          <t>Van Baerlestraat</t>
         </is>
       </c>
       <c r="E313" t="inlineStr">
         <is>
-          <t>POINT (4.8719933 52.3674579)</t>
+          <t>POINT (4.878318 52.3584538)</t>
         </is>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>3295383111</t>
+          <t>3295383118</t>
         </is>
       </c>
       <c r="B314" t="inlineStr">
@@ -8898,19 +8898,19 @@
       </c>
       <c r="D314" t="inlineStr">
         <is>
-          <t>Bilderdijkstraat</t>
+          <t>Van Baerlestraat</t>
         </is>
       </c>
       <c r="E314" t="inlineStr">
         <is>
-          <t>POINT (4.8698359 52.3708243)</t>
+          <t>POINT (4.8781266 52.3587793)</t>
         </is>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>3295383113</t>
+          <t>3295383119</t>
         </is>
       </c>
       <c r="B315" t="inlineStr">
@@ -8925,19 +8925,19 @@
       </c>
       <c r="D315" t="inlineStr">
         <is>
-          <t>De Pijp</t>
+          <t>Victorieplein</t>
         </is>
       </c>
       <c r="E315" t="inlineStr">
         <is>
-          <t>POINT (4.8905961 52.3527058)</t>
+          <t>POINT (4.9063478 52.3464278)</t>
         </is>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>3295383114</t>
+          <t>3295582281</t>
         </is>
       </c>
       <c r="B316" t="inlineStr">
@@ -8952,19 +8952,19 @@
       </c>
       <c r="D316" t="inlineStr">
         <is>
-          <t>Overtoom/ 1e C. Huygensstraat</t>
+          <t>Vennepluimstraat</t>
         </is>
       </c>
       <c r="E316" t="inlineStr">
         <is>
-          <t>POINT (4.8750893 52.3630125)</t>
+          <t>POINT (4.9905047 52.3576998)</t>
         </is>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>3295383115</t>
+          <t>3296373457</t>
         </is>
       </c>
       <c r="B317" t="inlineStr">
@@ -8979,19 +8979,19 @@
       </c>
       <c r="D317" t="inlineStr">
         <is>
-          <t>Overtoom/ 1e C. Huygensstraat</t>
+          <t>Baden Powellweg</t>
         </is>
       </c>
       <c r="E317" t="inlineStr">
         <is>
-          <t>POINT (4.8749794 52.363227)</t>
+          <t>POINT (4.7944986 52.3509515)</t>
         </is>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>3295383116</t>
+          <t>3296373458</t>
         </is>
       </c>
       <c r="B318" t="inlineStr">
@@ -9006,19 +9006,19 @@
       </c>
       <c r="D318" t="inlineStr">
         <is>
-          <t>Scheldestraat</t>
+          <t>Ecuplein</t>
         </is>
       </c>
       <c r="E318" t="inlineStr">
         <is>
-          <t>POINT (4.8911566 52.3474774)</t>
+          <t>POINT (4.7881582 52.3496935)</t>
         </is>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>3295383117</t>
+          <t>3296373459</t>
         </is>
       </c>
       <c r="B319" t="inlineStr">
@@ -9033,19 +9033,19 @@
       </c>
       <c r="D319" t="inlineStr">
         <is>
-          <t>Van Baerlestraat</t>
+          <t>Eerste Constantijn Huygensstraat</t>
         </is>
       </c>
       <c r="E319" t="inlineStr">
         <is>
-          <t>POINT (4.878318 52.3584538)</t>
+          <t>POINT (4.874895 52.3626351)</t>
         </is>
       </c>
     </row>
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>3295383118</t>
+          <t>3296373460</t>
         </is>
       </c>
       <c r="B320" t="inlineStr">
@@ -9060,19 +9060,19 @@
       </c>
       <c r="D320" t="inlineStr">
         <is>
-          <t>Van Baerlestraat</t>
+          <t>Johan Huizingalaan</t>
         </is>
       </c>
       <c r="E320" t="inlineStr">
         <is>
-          <t>POINT (4.8781266 52.3587793)</t>
+          <t>POINT (4.8262383 52.3577873)</t>
         </is>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>3295383119</t>
+          <t>3296373861</t>
         </is>
       </c>
       <c r="B321" t="inlineStr">
@@ -9087,19 +9087,19 @@
       </c>
       <c r="D321" t="inlineStr">
         <is>
-          <t>Victorieplein</t>
+          <t>Johan Huizingalaan</t>
         </is>
       </c>
       <c r="E321" t="inlineStr">
         <is>
-          <t>POINT (4.9063478 52.3464278)</t>
+          <t>POINT (4.8258953 52.3578123)</t>
         </is>
       </c>
     </row>
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>3295582281</t>
+          <t>3296373862</t>
         </is>
       </c>
       <c r="B322" t="inlineStr">
@@ -9114,19 +9114,19 @@
       </c>
       <c r="D322" t="inlineStr">
         <is>
-          <t>Vennepluimstraat</t>
+          <t>Keizersgracht</t>
         </is>
       </c>
       <c r="E322" t="inlineStr">
         <is>
-          <t>POINT (4.9905047 52.3576998)</t>
+          <t>POINT (4.8865383 52.3659919)</t>
         </is>
       </c>
     </row>
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>3296373457</t>
+          <t>3296373863</t>
         </is>
       </c>
       <c r="B323" t="inlineStr">
@@ -9141,19 +9141,19 @@
       </c>
       <c r="D323" t="inlineStr">
         <is>
-          <t>Baden Powellweg</t>
+          <t>Leidseplein</t>
         </is>
       </c>
       <c r="E323" t="inlineStr">
         <is>
-          <t>POINT (4.7944986 52.3509515)</t>
+          <t>POINT (4.8829633 52.3642229)</t>
         </is>
       </c>
     </row>
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>3296373458</t>
+          <t>3296373864</t>
         </is>
       </c>
       <c r="B324" t="inlineStr">
@@ -9168,19 +9168,19 @@
       </c>
       <c r="D324" t="inlineStr">
         <is>
-          <t>Ecuplein</t>
+          <t>Louis Davidsstraat</t>
         </is>
       </c>
       <c r="E324" t="inlineStr">
         <is>
-          <t>POINT (4.7881582 52.3496935)</t>
+          <t>POINT (4.8085181 52.3538389)</t>
         </is>
       </c>
     </row>
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>3296373459</t>
+          <t>3296373865</t>
         </is>
       </c>
       <c r="B325" t="inlineStr">
@@ -9195,19 +9195,19 @@
       </c>
       <c r="D325" t="inlineStr">
         <is>
-          <t>Eerste Constantijn Huygensstraat</t>
+          <t>Matterhorn</t>
         </is>
       </c>
       <c r="E325" t="inlineStr">
         <is>
-          <t>POINT (4.874895 52.3626351)</t>
+          <t>POINT (4.7745043 52.3538687)</t>
         </is>
       </c>
     </row>
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>3296373460</t>
+          <t>3296373866</t>
         </is>
       </c>
       <c r="B326" t="inlineStr">
@@ -9222,19 +9222,19 @@
       </c>
       <c r="D326" t="inlineStr">
         <is>
-          <t>Johan Huizingalaan</t>
+          <t>Meer en Vaart</t>
         </is>
       </c>
       <c r="E326" t="inlineStr">
         <is>
-          <t>POINT (4.8262383 52.3577873)</t>
+          <t>POINT (4.8099119 52.35637)</t>
         </is>
       </c>
     </row>
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>3296373861</t>
+          <t>3296373869</t>
         </is>
       </c>
       <c r="B327" t="inlineStr">
@@ -9249,19 +9249,19 @@
       </c>
       <c r="D327" t="inlineStr">
         <is>
-          <t>Johan Huizingalaan</t>
+          <t>Prinsengracht</t>
         </is>
       </c>
       <c r="E327" t="inlineStr">
         <is>
-          <t>POINT (4.8258953 52.3578123)</t>
+          <t>POINT (4.8845404 52.3650457)</t>
         </is>
       </c>
     </row>
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t>3296373862</t>
+          <t>3296373870</t>
         </is>
       </c>
       <c r="B328" t="inlineStr">
@@ -9276,19 +9276,19 @@
       </c>
       <c r="D328" t="inlineStr">
         <is>
-          <t>Keizersgracht</t>
+          <t>Station Lelylaan</t>
         </is>
       </c>
       <c r="E328" t="inlineStr">
         <is>
-          <t>POINT (4.8865383 52.3659919)</t>
+          <t>POINT (4.8337835 52.3579004)</t>
         </is>
       </c>
     </row>
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>3296373863</t>
+          <t>3296374053</t>
         </is>
       </c>
       <c r="B329" t="inlineStr">
@@ -9303,19 +9303,19 @@
       </c>
       <c r="D329" t="inlineStr">
         <is>
-          <t>Leidseplein</t>
+          <t>Curacaostraat</t>
         </is>
       </c>
       <c r="E329" t="inlineStr">
         <is>
-          <t>POINT (4.8829633 52.3642229)</t>
+          <t>POINT (4.8506975 52.3586176)</t>
         </is>
       </c>
     </row>
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>3296373864</t>
+          <t>3296687013</t>
         </is>
       </c>
       <c r="B330" t="inlineStr">
@@ -9330,19 +9330,19 @@
       </c>
       <c r="D330" t="inlineStr">
         <is>
-          <t>Louis Davidsstraat</t>
+          <t>Cornelis Schuytstraat</t>
         </is>
       </c>
       <c r="E330" t="inlineStr">
         <is>
-          <t>POINT (4.8085181 52.3538389)</t>
+          <t>POINT (4.8705851 52.3559987)</t>
         </is>
       </c>
     </row>
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>3296373865</t>
+          <t>3296687016</t>
         </is>
       </c>
       <c r="B331" t="inlineStr">
@@ -9357,19 +9357,19 @@
       </c>
       <c r="D331" t="inlineStr">
         <is>
-          <t>Matterhorn</t>
+          <t>Centrum Nieuw Sloten</t>
         </is>
       </c>
       <c r="E331" t="inlineStr">
         <is>
-          <t>POINT (4.7745043 52.3538687)</t>
+          <t>POINT (4.8106661 52.3463027)</t>
         </is>
       </c>
     </row>
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>3296373866</t>
+          <t>3296687017</t>
         </is>
       </c>
       <c r="B332" t="inlineStr">
@@ -9384,19 +9384,19 @@
       </c>
       <c r="D332" t="inlineStr">
         <is>
-          <t>Meer en Vaart</t>
+          <t>Louwesweg</t>
         </is>
       </c>
       <c r="E332" t="inlineStr">
         <is>
-          <t>POINT (4.8099119 52.35637)</t>
+          <t>POINT (4.8250738 52.346707)</t>
         </is>
       </c>
     </row>
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>3296373869</t>
+          <t>3297465109</t>
         </is>
       </c>
       <c r="B333" t="inlineStr">
@@ -9411,19 +9411,19 @@
       </c>
       <c r="D333" t="inlineStr">
         <is>
-          <t>Prinsengracht</t>
+          <t>Haarlemmerplein</t>
         </is>
       </c>
       <c r="E333" t="inlineStr">
         <is>
-          <t>POINT (4.8845404 52.3650457)</t>
+          <t>POINT (4.8836242 52.3850483)</t>
         </is>
       </c>
     </row>
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>3296373870</t>
+          <t>3297465110</t>
         </is>
       </c>
       <c r="B334" t="inlineStr">
@@ -9438,19 +9438,19 @@
       </c>
       <c r="D334" t="inlineStr">
         <is>
-          <t>Station Lelylaan</t>
+          <t>Nieuwe Willemstraat</t>
         </is>
       </c>
       <c r="E334" t="inlineStr">
         <is>
-          <t>POINT (4.8337835 52.3579004)</t>
+          <t>POINT (4.88118 52.3816379)</t>
         </is>
       </c>
     </row>
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>3296374053</t>
+          <t>3297544662</t>
         </is>
       </c>
       <c r="B335" t="inlineStr">
@@ -9465,19 +9465,19 @@
       </c>
       <c r="D335" t="inlineStr">
         <is>
-          <t>Curacaostraat</t>
+          <t>Frederik Hendrikplantsoen</t>
         </is>
       </c>
       <c r="E335" t="inlineStr">
         <is>
-          <t>POINT (4.8506975 52.3586176)</t>
+          <t>POINT (4.8754111 52.3786007)</t>
         </is>
       </c>
     </row>
     <row r="336">
       <c r="A336" t="inlineStr">
         <is>
-          <t>3296687013</t>
+          <t>3297544663</t>
         </is>
       </c>
       <c r="B336" t="inlineStr">
@@ -9492,19 +9492,19 @@
       </c>
       <c r="D336" t="inlineStr">
         <is>
-          <t>Cornelis Schuytstraat</t>
+          <t>Tweede Van der Helststraat</t>
         </is>
       </c>
       <c r="E336" t="inlineStr">
         <is>
-          <t>POINT (4.8705851 52.3559987)</t>
+          <t>POINT (4.8942153 52.3531905)</t>
         </is>
       </c>
     </row>
     <row r="337">
       <c r="A337" t="inlineStr">
         <is>
-          <t>3296687016</t>
+          <t>3298959766</t>
         </is>
       </c>
       <c r="B337" t="inlineStr">
@@ -9519,19 +9519,19 @@
       </c>
       <c r="D337" t="inlineStr">
         <is>
-          <t>Centrum Nieuw Sloten</t>
+          <t>Beukenweg</t>
         </is>
       </c>
       <c r="E337" t="inlineStr">
         <is>
-          <t>POINT (4.8106661 52.3463027)</t>
+          <t>POINT (4.9172481 52.3582391)</t>
         </is>
       </c>
     </row>
     <row r="338">
       <c r="A338" t="inlineStr">
         <is>
-          <t>3296687017</t>
+          <t>3299908038</t>
         </is>
       </c>
       <c r="B338" t="inlineStr">
@@ -9546,19 +9546,19 @@
       </c>
       <c r="D338" t="inlineStr">
         <is>
-          <t>Louwesweg</t>
+          <t>Muiderpoortstation</t>
         </is>
       </c>
       <c r="E338" t="inlineStr">
         <is>
-          <t>POINT (4.8250738 52.346707)</t>
+          <t>POINT (4.9326128 52.3607965)</t>
         </is>
       </c>
     </row>
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>3297465109</t>
+          <t>3299908039</t>
         </is>
       </c>
       <c r="B339" t="inlineStr">
@@ -9573,19 +9573,19 @@
       </c>
       <c r="D339" t="inlineStr">
         <is>
-          <t>Haarlemmerplein</t>
+          <t>Camperstraat</t>
         </is>
       </c>
       <c r="E339" t="inlineStr">
         <is>
-          <t>POINT (4.8836242 52.3850483)</t>
+          <t>POINT (4.9137826 52.3583909)</t>
         </is>
       </c>
     </row>
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>3297465110</t>
+          <t>3299908040</t>
         </is>
       </c>
       <c r="B340" t="inlineStr">
@@ -9600,19 +9600,19 @@
       </c>
       <c r="D340" t="inlineStr">
         <is>
-          <t>Nieuwe Willemstraat</t>
+          <t>Dapperstraat</t>
         </is>
       </c>
       <c r="E340" t="inlineStr">
         <is>
-          <t>POINT (4.88118 52.3816379)</t>
+          <t>POINT (4.9297575 52.3610986)</t>
         </is>
       </c>
     </row>
     <row r="341">
       <c r="A341" t="inlineStr">
         <is>
-          <t>3297544662</t>
+          <t>3299908041</t>
         </is>
       </c>
       <c r="B341" t="inlineStr">
@@ -9627,19 +9627,19 @@
       </c>
       <c r="D341" t="inlineStr">
         <is>
-          <t>Frederik Hendrikplantsoen</t>
+          <t>Linnaeusstraat</t>
         </is>
       </c>
       <c r="E341" t="inlineStr">
         <is>
-          <t>POINT (4.8754111 52.3786007)</t>
+          <t>POINT (4.9249118 52.3599165)</t>
         </is>
       </c>
     </row>
     <row r="342">
       <c r="A342" t="inlineStr">
         <is>
-          <t>3297544663</t>
+          <t>3300150225</t>
         </is>
       </c>
       <c r="B342" t="inlineStr">
@@ -9654,19 +9654,19 @@
       </c>
       <c r="D342" t="inlineStr">
         <is>
-          <t>Tweede Van der Helststraat</t>
+          <t>Stadionweg</t>
         </is>
       </c>
       <c r="E342" t="inlineStr">
         <is>
-          <t>POINT (4.8942153 52.3531905)</t>
+          <t>POINT (4.8768645 52.346674)</t>
         </is>
       </c>
     </row>
     <row r="343">
       <c r="A343" t="inlineStr">
         <is>
-          <t>3298959766</t>
+          <t>3300150226</t>
         </is>
       </c>
       <c r="B343" t="inlineStr">
@@ -9681,19 +9681,19 @@
       </c>
       <c r="D343" t="inlineStr">
         <is>
-          <t>Beukenweg</t>
+          <t>Stadionweg</t>
         </is>
       </c>
       <c r="E343" t="inlineStr">
         <is>
-          <t>POINT (4.9172481 52.3582391)</t>
+          <t>POINT (4.8768834 52.3471425)</t>
         </is>
       </c>
     </row>
     <row r="344">
       <c r="A344" t="inlineStr">
         <is>
-          <t>3299908038</t>
+          <t>3300150230</t>
         </is>
       </c>
       <c r="B344" t="inlineStr">
@@ -9708,19 +9708,19 @@
       </c>
       <c r="D344" t="inlineStr">
         <is>
-          <t>Muiderpoortstation</t>
+          <t>Prinses Irenestraat</t>
         </is>
       </c>
       <c r="E344" t="inlineStr">
         <is>
-          <t>POINT (4.9326128 52.3607965)</t>
+          <t>POINT (4.8767749 52.3431074)</t>
         </is>
       </c>
     </row>
     <row r="345">
       <c r="A345" t="inlineStr">
         <is>
-          <t>3299908039</t>
+          <t>3300514038</t>
         </is>
       </c>
       <c r="B345" t="inlineStr">
@@ -9735,19 +9735,19 @@
       </c>
       <c r="D345" t="inlineStr">
         <is>
-          <t>Camperstraat</t>
+          <t>Witte de Withstraat</t>
         </is>
       </c>
       <c r="E345" t="inlineStr">
         <is>
-          <t>POINT (4.9137826 52.3583909)</t>
+          <t>POINT (4.8586095 52.3647872)</t>
         </is>
       </c>
     </row>
     <row r="346">
       <c r="A346" t="inlineStr">
         <is>
-          <t>3299908040</t>
+          <t>3300515588</t>
         </is>
       </c>
       <c r="B346" t="inlineStr">
@@ -9762,19 +9762,19 @@
       </c>
       <c r="D346" t="inlineStr">
         <is>
-          <t>Dapperstraat</t>
+          <t>Jan van Galenstraat</t>
         </is>
       </c>
       <c r="E346" t="inlineStr">
         <is>
-          <t>POINT (4.9297575 52.3610986)</t>
+          <t>POINT (4.8487242 52.3729826)</t>
         </is>
       </c>
     </row>
     <row r="347">
       <c r="A347" t="inlineStr">
         <is>
-          <t>3299908041</t>
+          <t>3301289966</t>
         </is>
       </c>
       <c r="B347" t="inlineStr">
@@ -9789,19 +9789,19 @@
       </c>
       <c r="D347" t="inlineStr">
         <is>
-          <t>Linnaeusstraat</t>
+          <t>Alexanderplein</t>
         </is>
       </c>
       <c r="E347" t="inlineStr">
         <is>
-          <t>POINT (4.9249118 52.3599165)</t>
+          <t>POINT (4.9185684 52.3633708)</t>
         </is>
       </c>
     </row>
     <row r="348">
       <c r="A348" t="inlineStr">
         <is>
-          <t>3300150225</t>
+          <t>3303180661</t>
         </is>
       </c>
       <c r="B348" t="inlineStr">
@@ -9816,19 +9816,19 @@
       </c>
       <c r="D348" t="inlineStr">
         <is>
-          <t>Stadionweg</t>
+          <t>Flevopark</t>
         </is>
       </c>
       <c r="E348" t="inlineStr">
         <is>
-          <t>POINT (4.8768645 52.346674)</t>
+          <t>POINT (4.9510568 52.3652467)</t>
         </is>
       </c>
     </row>
     <row r="349">
       <c r="A349" t="inlineStr">
         <is>
-          <t>3300150226</t>
+          <t>3303180662</t>
         </is>
       </c>
       <c r="B349" t="inlineStr">
@@ -9843,19 +9843,19 @@
       </c>
       <c r="D349" t="inlineStr">
         <is>
-          <t>Stadionweg</t>
+          <t>Frederiksplein</t>
         </is>
       </c>
       <c r="E349" t="inlineStr">
         <is>
-          <t>POINT (4.8768834 52.3471425)</t>
+          <t>POINT (4.8978483 52.3594109)</t>
         </is>
       </c>
     </row>
     <row r="350">
       <c r="A350" t="inlineStr">
         <is>
-          <t>3300150230</t>
+          <t>3303180663</t>
         </is>
       </c>
       <c r="B350" t="inlineStr">
@@ -9870,19 +9870,19 @@
       </c>
       <c r="D350" t="inlineStr">
         <is>
-          <t>Prinses Irenestraat</t>
+          <t>Insulindeweg</t>
         </is>
       </c>
       <c r="E350" t="inlineStr">
         <is>
-          <t>POINT (4.8767749 52.3431074)</t>
+          <t>POINT (4.9478662 52.3649431)</t>
         </is>
       </c>
     </row>
     <row r="351">
       <c r="A351" t="inlineStr">
         <is>
-          <t>3300514038</t>
+          <t>3303180666</t>
         </is>
       </c>
       <c r="B351" t="inlineStr">
@@ -9897,19 +9897,19 @@
       </c>
       <c r="D351" t="inlineStr">
         <is>
-          <t>Witte de Withstraat</t>
+          <t>Soembawastraat</t>
         </is>
       </c>
       <c r="E351" t="inlineStr">
         <is>
-          <t>POINT (4.8586095 52.3647872)</t>
+          <t>POINT (4.9433884 52.3621442)</t>
         </is>
       </c>
     </row>
     <row r="352">
       <c r="A352" t="inlineStr">
         <is>
-          <t>3300515588</t>
+          <t>3303180667</t>
         </is>
       </c>
       <c r="B352" t="inlineStr">
@@ -9924,19 +9924,19 @@
       </c>
       <c r="D352" t="inlineStr">
         <is>
-          <t>Jan van Galenstraat</t>
+          <t>Rijksmuseum</t>
         </is>
       </c>
       <c r="E352" t="inlineStr">
         <is>
-          <t>POINT (4.8487242 52.3729826)</t>
+          <t>POINT (4.8873395 52.3608307)</t>
         </is>
       </c>
     </row>
     <row r="353">
       <c r="A353" t="inlineStr">
         <is>
-          <t>3301289966</t>
+          <t>3306176726</t>
         </is>
       </c>
       <c r="B353" t="inlineStr">
@@ -9951,19 +9951,19 @@
       </c>
       <c r="D353" t="inlineStr">
         <is>
-          <t>Alexanderplein</t>
+          <t>Eerste Coehoornstraat</t>
         </is>
       </c>
       <c r="E353" t="inlineStr">
         <is>
-          <t>POINT (4.9185684 52.3633708)</t>
+          <t>POINT (4.9265233 52.3683184)</t>
         </is>
       </c>
     </row>
     <row r="354">
       <c r="A354" t="inlineStr">
         <is>
-          <t>3303180661</t>
+          <t>3306176727</t>
         </is>
       </c>
       <c r="B354" t="inlineStr">
@@ -9978,19 +9978,19 @@
       </c>
       <c r="D354" t="inlineStr">
         <is>
-          <t>Flevopark</t>
+          <t>Eerste Leeghwaterstraat</t>
         </is>
       </c>
       <c r="E354" t="inlineStr">
         <is>
-          <t>POINT (4.9510568 52.3652467)</t>
+          <t>POINT (4.9295997 52.3701978)</t>
         </is>
       </c>
     </row>
     <row r="355">
       <c r="A355" t="inlineStr">
         <is>
-          <t>3303180662</t>
+          <t>3306176728</t>
         </is>
       </c>
       <c r="B355" t="inlineStr">
@@ -10005,19 +10005,19 @@
       </c>
       <c r="D355" t="inlineStr">
         <is>
-          <t>Frederiksplein</t>
+          <t>Hoogte Kadijk</t>
         </is>
       </c>
       <c r="E355" t="inlineStr">
         <is>
-          <t>POINT (4.8978483 52.3594109)</t>
+          <t>POINT (4.9242477 52.3666491)</t>
         </is>
       </c>
     </row>
     <row r="356">
       <c r="A356" t="inlineStr">
         <is>
-          <t>3303180663</t>
+          <t>3306176729</t>
         </is>
       </c>
       <c r="B356" t="inlineStr">
@@ -10032,19 +10032,19 @@
       </c>
       <c r="D356" t="inlineStr">
         <is>
-          <t>Insulindeweg</t>
+          <t>Rietlandpark</t>
         </is>
       </c>
       <c r="E356" t="inlineStr">
         <is>
-          <t>POINT (4.9478662 52.3649431)</t>
+          <t>POINT (4.9344045 52.372921)</t>
         </is>
       </c>
     </row>
     <row r="357">
       <c r="A357" t="inlineStr">
         <is>
-          <t>3303180666</t>
+          <t>3306416869</t>
         </is>
       </c>
       <c r="B357" t="inlineStr">
@@ -10059,19 +10059,19 @@
       </c>
       <c r="D357" t="inlineStr">
         <is>
-          <t>Soembawastraat</t>
+          <t>De Wittenkade</t>
         </is>
       </c>
       <c r="E357" t="inlineStr">
         <is>
-          <t>POINT (4.9433884 52.3621442)</t>
+          <t>POINT (4.877086 52.3831444)</t>
         </is>
       </c>
     </row>
     <row r="358">
       <c r="A358" t="inlineStr">
         <is>
-          <t>3303180667</t>
+          <t>3306416870</t>
         </is>
       </c>
       <c r="B358" t="inlineStr">
@@ -10086,19 +10086,19 @@
       </c>
       <c r="D358" t="inlineStr">
         <is>
-          <t>Rijksmuseum</t>
+          <t>Nassaukade</t>
         </is>
       </c>
       <c r="E358" t="inlineStr">
         <is>
-          <t>POINT (4.8873395 52.3608307)</t>
+          <t>POINT (4.8791525 52.3810685)</t>
         </is>
       </c>
     </row>
     <row r="359">
       <c r="A359" t="inlineStr">
         <is>
-          <t>3306176726</t>
+          <t>3306416871</t>
         </is>
       </c>
       <c r="B359" t="inlineStr">
@@ -10113,19 +10113,19 @@
       </c>
       <c r="D359" t="inlineStr">
         <is>
-          <t>Eerste Coehoornstraat</t>
+          <t>Van Limburg Stirumplein</t>
         </is>
       </c>
       <c r="E359" t="inlineStr">
         <is>
-          <t>POINT (4.9265233 52.3683184)</t>
+          <t>POINT (4.8751351 52.3842946)</t>
         </is>
       </c>
     </row>
     <row r="360">
       <c r="A360" t="inlineStr">
         <is>
-          <t>3306176727</t>
+          <t>3306520722</t>
         </is>
       </c>
       <c r="B360" t="inlineStr">
@@ -10140,19 +10140,19 @@
       </c>
       <c r="D360" t="inlineStr">
         <is>
-          <t>Eerste Leeghwaterstraat</t>
+          <t>Admiraal Helfrichstraat</t>
         </is>
       </c>
       <c r="E360" t="inlineStr">
         <is>
-          <t>POINT (4.9295997 52.3701978)</t>
+          <t>POINT (4.8438216 52.3694429)</t>
         </is>
       </c>
     </row>
     <row r="361">
       <c r="A361" t="inlineStr">
         <is>
-          <t>3306176728</t>
+          <t>3306520723</t>
         </is>
       </c>
       <c r="B361" t="inlineStr">
@@ -10167,19 +10167,19 @@
       </c>
       <c r="D361" t="inlineStr">
         <is>
-          <t>Hoogte Kadijk</t>
+          <t>Burgemeester Van Leeuwenlaan</t>
         </is>
       </c>
       <c r="E361" t="inlineStr">
         <is>
-          <t>POINT (4.9242477 52.3666491)</t>
+          <t>POINT (4.8117554 52.3765095)</t>
         </is>
       </c>
     </row>
     <row r="362">
       <c r="A362" t="inlineStr">
         <is>
-          <t>3306176729</t>
+          <t>3306520724</t>
         </is>
       </c>
       <c r="B362" t="inlineStr">
@@ -10194,19 +10194,19 @@
       </c>
       <c r="D362" t="inlineStr">
         <is>
-          <t>Rietlandpark</t>
+          <t>Dr. H. Colijnstraat</t>
         </is>
       </c>
       <c r="E362" t="inlineStr">
         <is>
-          <t>POINT (4.9344045 52.372921)</t>
+          <t>POINT (4.8065746 52.3769374)</t>
         </is>
       </c>
     </row>
     <row r="363">
       <c r="A363" t="inlineStr">
         <is>
-          <t>3306416869</t>
+          <t>3306520725</t>
         </is>
       </c>
       <c r="B363" t="inlineStr">
@@ -10221,19 +10221,19 @@
       </c>
       <c r="D363" t="inlineStr">
         <is>
-          <t>De Wittenkade</t>
+          <t>Jan Tooropstraat</t>
         </is>
       </c>
       <c r="E363" t="inlineStr">
         <is>
-          <t>POINT (4.877086 52.3831444)</t>
+          <t>POINT (4.838103 52.3714267)</t>
         </is>
       </c>
     </row>
     <row r="364">
       <c r="A364" t="inlineStr">
         <is>
-          <t>3306416870</t>
+          <t>3306520726</t>
         </is>
       </c>
       <c r="B364" t="inlineStr">
@@ -10248,19 +10248,19 @@
       </c>
       <c r="D364" t="inlineStr">
         <is>
-          <t>Nassaukade</t>
+          <t>Jan Voermanstraat</t>
         </is>
       </c>
       <c r="E364" t="inlineStr">
         <is>
-          <t>POINT (4.8791525 52.3810685)</t>
+          <t>POINT (4.8378389 52.3697121)</t>
         </is>
       </c>
     </row>
     <row r="365">
       <c r="A365" t="inlineStr">
         <is>
-          <t>3306416871</t>
+          <t>3306520727</t>
         </is>
       </c>
       <c r="B365" t="inlineStr">
@@ -10275,19 +10275,19 @@
       </c>
       <c r="D365" t="inlineStr">
         <is>
-          <t>Van Limburg Stirumplein</t>
+          <t>Jan van Galenstraat</t>
         </is>
       </c>
       <c r="E365" t="inlineStr">
         <is>
-          <t>POINT (4.8751351 52.3842946)</t>
+          <t>POINT (4.8350051 52.3732337)</t>
         </is>
       </c>
     </row>
     <row r="366">
       <c r="A366" t="inlineStr">
         <is>
-          <t>3306520722</t>
+          <t>3306520728</t>
         </is>
       </c>
       <c r="B366" t="inlineStr">
@@ -10302,19 +10302,19 @@
       </c>
       <c r="D366" t="inlineStr">
         <is>
-          <t>Admiraal Helfrichstraat</t>
+          <t>Mercatorplein</t>
         </is>
       </c>
       <c r="E366" t="inlineStr">
         <is>
-          <t>POINT (4.8438216 52.3694429)</t>
+          <t>POINT (4.8514871 52.3702349)</t>
         </is>
       </c>
     </row>
     <row r="367">
       <c r="A367" t="inlineStr">
         <is>
-          <t>3306520723</t>
+          <t>3307084740</t>
         </is>
       </c>
       <c r="B367" t="inlineStr">
@@ -10329,19 +10329,19 @@
       </c>
       <c r="D367" t="inlineStr">
         <is>
-          <t>Burgemeester Van Leeuwenlaan</t>
+          <t>Pontanusstraat</t>
         </is>
       </c>
       <c r="E367" t="inlineStr">
         <is>
-          <t>POINT (4.8117554 52.3765095)</t>
+          <t>POINT (4.9275974 52.3659034)</t>
         </is>
       </c>
     </row>
     <row r="368">
       <c r="A368" t="inlineStr">
         <is>
-          <t>3306520724</t>
+          <t>3307084741</t>
         </is>
       </c>
       <c r="B368" t="inlineStr">
@@ -10356,19 +10356,19 @@
       </c>
       <c r="D368" t="inlineStr">
         <is>
-          <t>Dr. H. Colijnstraat</t>
+          <t>Zeeburgerdijk</t>
         </is>
       </c>
       <c r="E368" t="inlineStr">
         <is>
-          <t>POINT (4.8065746 52.3769374)</t>
+          <t>POINT (4.9325902 52.3658298)</t>
         </is>
       </c>
     </row>
     <row r="369">
       <c r="A369" t="inlineStr">
         <is>
-          <t>3306520725</t>
+          <t>3307343461</t>
         </is>
       </c>
       <c r="B369" t="inlineStr">
@@ -10383,19 +10383,19 @@
       </c>
       <c r="D369" t="inlineStr">
         <is>
-          <t>Jan Tooropstraat</t>
+          <t>De Boelelaan/VU</t>
         </is>
       </c>
       <c r="E369" t="inlineStr">
         <is>
-          <t>POINT (4.838103 52.3714267)</t>
+          <t>POINT (4.8663865 52.3351971)</t>
         </is>
       </c>
     </row>
     <row r="370">
       <c r="A370" t="inlineStr">
         <is>
-          <t>3306520726</t>
+          <t>3307343462</t>
         </is>
       </c>
       <c r="B370" t="inlineStr">
@@ -10410,19 +10410,19 @@
       </c>
       <c r="D370" t="inlineStr">
         <is>
-          <t>Jan Voermanstraat</t>
+          <t>Haarlemmermeerstation</t>
         </is>
       </c>
       <c r="E370" t="inlineStr">
         <is>
-          <t>POINT (4.8378389 52.3697121)</t>
+          <t>POINT (4.8575004 52.3490455)</t>
         </is>
       </c>
     </row>
     <row r="371">
       <c r="A371" t="inlineStr">
         <is>
-          <t>3306520727</t>
+          <t>3307636848</t>
         </is>
       </c>
       <c r="B371" t="inlineStr">
@@ -10437,19 +10437,19 @@
       </c>
       <c r="D371" t="inlineStr">
         <is>
-          <t>Jan van Galenstraat</t>
+          <t>Baden Powellweg</t>
         </is>
       </c>
       <c r="E371" t="inlineStr">
         <is>
-          <t>POINT (4.8350051 52.3732337)</t>
+          <t>POINT (4.7917476 52.3565018)</t>
         </is>
       </c>
     </row>
     <row r="372">
       <c r="A372" t="inlineStr">
         <is>
-          <t>3306520728</t>
+          <t>3307636849</t>
         </is>
       </c>
       <c r="B372" t="inlineStr">
@@ -10464,19 +10464,19 @@
       </c>
       <c r="D372" t="inlineStr">
         <is>
-          <t>Mercatorplein</t>
+          <t>Corantijnstraat</t>
         </is>
       </c>
       <c r="E372" t="inlineStr">
         <is>
-          <t>POINT (4.8514871 52.3702349)</t>
+          <t>POINT (4.853247 52.3615937)</t>
         </is>
       </c>
     </row>
     <row r="373">
       <c r="A373" t="inlineStr">
         <is>
-          <t>3307084740</t>
+          <t>3307636850</t>
         </is>
       </c>
       <c r="B373" t="inlineStr">
@@ -10491,19 +10491,19 @@
       </c>
       <c r="D373" t="inlineStr">
         <is>
-          <t>Pontanusstraat</t>
+          <t>Hoekenes</t>
         </is>
       </c>
       <c r="E373" t="inlineStr">
         <is>
-          <t>POINT (4.9275974 52.3659034)</t>
+          <t>POINT (4.7995659 52.3580714)</t>
         </is>
       </c>
     </row>
     <row r="374">
       <c r="A374" t="inlineStr">
         <is>
-          <t>3307084741</t>
+          <t>3307636851</t>
         </is>
       </c>
       <c r="B374" t="inlineStr">
@@ -10518,19 +10518,19 @@
       </c>
       <c r="D374" t="inlineStr">
         <is>
-          <t>Zeeburgerdijk</t>
+          <t>Osdorpplein West</t>
         </is>
       </c>
       <c r="E374" t="inlineStr">
         <is>
-          <t>POINT (4.9325902 52.3658298)</t>
+          <t>POINT (4.8032054 52.3595387)</t>
         </is>
       </c>
     </row>
     <row r="375">
       <c r="A375" t="inlineStr">
         <is>
-          <t>3307343461</t>
+          <t>3307636852</t>
         </is>
       </c>
       <c r="B375" t="inlineStr">
@@ -10545,19 +10545,19 @@
       </c>
       <c r="D375" t="inlineStr">
         <is>
-          <t>De Boelelaan/VU</t>
+          <t>Postjesweg</t>
         </is>
       </c>
       <c r="E375" t="inlineStr">
         <is>
-          <t>POINT (4.8663865 52.3351971)</t>
+          <t>POINT (4.8531487 52.3638557)</t>
         </is>
       </c>
     </row>
     <row r="376">
       <c r="A376" t="inlineStr">
         <is>
-          <t>3307343462</t>
+          <t>3307636853</t>
         </is>
       </c>
       <c r="B376" t="inlineStr">
@@ -10572,19 +10572,19 @@
       </c>
       <c r="D376" t="inlineStr">
         <is>
-          <t>Haarlemmermeerstation</t>
+          <t>Osdorpplein Oost</t>
         </is>
       </c>
       <c r="E376" t="inlineStr">
         <is>
-          <t>POINT (4.8575004 52.3490455)</t>
+          <t>POINT (4.8080582 52.358636)</t>
         </is>
       </c>
     </row>
     <row r="377">
       <c r="A377" t="inlineStr">
         <is>
-          <t>3307636848</t>
+          <t>3307702376</t>
         </is>
       </c>
       <c r="B377" t="inlineStr">
@@ -10599,19 +10599,19 @@
       </c>
       <c r="D377" t="inlineStr">
         <is>
-          <t>Baden Powellweg</t>
+          <t>Minervaplein</t>
         </is>
       </c>
       <c r="E377" t="inlineStr">
         <is>
-          <t>POINT (4.7917476 52.3565018)</t>
+          <t>POINT (4.8720137 52.346695)</t>
         </is>
       </c>
     </row>
     <row r="378">
       <c r="A378" t="inlineStr">
         <is>
-          <t>3307636849</t>
+          <t>3307702377</t>
         </is>
       </c>
       <c r="B378" t="inlineStr">
@@ -10626,19 +10626,19 @@
       </c>
       <c r="D378" t="inlineStr">
         <is>
-          <t>Corantijnstraat</t>
+          <t>Olympiaplein</t>
         </is>
       </c>
       <c r="E378" t="inlineStr">
         <is>
-          <t>POINT (4.853247 52.3615937)</t>
+          <t>POINT (4.8666421 52.3463735)</t>
         </is>
       </c>
     </row>
     <row r="379">
       <c r="A379" t="inlineStr">
         <is>
-          <t>3307636850</t>
+          <t>3307702378</t>
         </is>
       </c>
       <c r="B379" t="inlineStr">
@@ -10653,19 +10653,19 @@
       </c>
       <c r="D379" t="inlineStr">
         <is>
-          <t>Hoekenes</t>
+          <t>Olympiaweg</t>
         </is>
       </c>
       <c r="E379" t="inlineStr">
         <is>
-          <t>POINT (4.7995659 52.3580714)</t>
+          <t>POINT (4.8586416 52.3452686)</t>
         </is>
       </c>
     </row>
     <row r="380">
       <c r="A380" t="inlineStr">
         <is>
-          <t>3307636851</t>
+          <t>3307835922</t>
         </is>
       </c>
       <c r="B380" t="inlineStr">
@@ -10680,19 +10680,19 @@
       </c>
       <c r="D380" t="inlineStr">
         <is>
-          <t>Osdorpplein West</t>
+          <t>Erasmusgracht</t>
         </is>
       </c>
       <c r="E380" t="inlineStr">
         <is>
-          <t>POINT (4.8032054 52.3595387)</t>
+          <t>POINT (4.8469734 52.3763312)</t>
         </is>
       </c>
     </row>
     <row r="381">
       <c r="A381" t="inlineStr">
         <is>
-          <t>3307636852</t>
+          <t>3307835927</t>
         </is>
       </c>
       <c r="B381" t="inlineStr">
@@ -10707,19 +10707,19 @@
       </c>
       <c r="D381" t="inlineStr">
         <is>
-          <t>Postjesweg</t>
+          <t>W. Schoutenstraat</t>
         </is>
       </c>
       <c r="E381" t="inlineStr">
         <is>
-          <t>POINT (4.8531487 52.3638557)</t>
+          <t>POINT (4.852596 52.3669952)</t>
         </is>
       </c>
     </row>
     <row r="382">
       <c r="A382" t="inlineStr">
         <is>
-          <t>3307636853</t>
+          <t>3307835928</t>
         </is>
       </c>
       <c r="B382" t="inlineStr">
@@ -10734,19 +10734,19 @@
       </c>
       <c r="D382" t="inlineStr">
         <is>
-          <t>Osdorpplein Oost</t>
+          <t>W. Schoutenstraat</t>
         </is>
       </c>
       <c r="E382" t="inlineStr">
         <is>
-          <t>POINT (4.8080582 52.358636)</t>
+          <t>POINT (4.8523612 52.3673886)</t>
         </is>
       </c>
     </row>
     <row r="383">
       <c r="A383" t="inlineStr">
         <is>
-          <t>3307702376</t>
+          <t>3308281969</t>
         </is>
       </c>
       <c r="B383" t="inlineStr">
@@ -10761,19 +10761,19 @@
       </c>
       <c r="D383" t="inlineStr">
         <is>
-          <t>Minervaplein</t>
+          <t>Ouderkerkerlaan</t>
         </is>
       </c>
       <c r="E383" t="inlineStr">
         <is>
-          <t>POINT (4.8720137 52.346695)</t>
+          <t>POINT (4.8674156 52.2961484)</t>
         </is>
       </c>
     </row>
     <row r="384">
       <c r="A384" t="inlineStr">
         <is>
-          <t>3307702377</t>
+          <t>3308281970</t>
         </is>
       </c>
       <c r="B384" t="inlineStr">
@@ -10788,19 +10788,19 @@
       </c>
       <c r="D384" t="inlineStr">
         <is>
-          <t>Olympiaplein</t>
+          <t>Sacharovlaan</t>
         </is>
       </c>
       <c r="E384" t="inlineStr">
         <is>
-          <t>POINT (4.8666421 52.3463735)</t>
+          <t>POINT (4.8327699 52.2825723)</t>
         </is>
       </c>
     </row>
     <row r="385">
       <c r="A385" t="inlineStr">
         <is>
-          <t>3307702378</t>
+          <t>3308281975</t>
         </is>
       </c>
       <c r="B385" t="inlineStr">
@@ -10815,19 +10815,19 @@
       </c>
       <c r="D385" t="inlineStr">
         <is>
-          <t>Olympiaweg</t>
+          <t>Westwijk</t>
         </is>
       </c>
       <c r="E385" t="inlineStr">
         <is>
-          <t>POINT (4.8586416 52.3452686)</t>
+          <t>POINT (4.8305377 52.2743532)</t>
         </is>
       </c>
     </row>
     <row r="386">
       <c r="A386" t="inlineStr">
         <is>
-          <t>3307835922</t>
+          <t>3371092710</t>
         </is>
       </c>
       <c r="B386" t="inlineStr">
@@ -10842,19 +10842,19 @@
       </c>
       <c r="D386" t="inlineStr">
         <is>
-          <t>Erasmusgracht</t>
+          <t>Westlandgracht</t>
         </is>
       </c>
       <c r="E386" t="inlineStr">
         <is>
-          <t>POINT (4.8469734 52.3763312)</t>
+          <t>POINT (4.8450157 52.3515947)</t>
         </is>
       </c>
     </row>
     <row r="387">
       <c r="A387" t="inlineStr">
         <is>
-          <t>3307835927</t>
+          <t>3561192480</t>
         </is>
       </c>
       <c r="B387" t="inlineStr">
@@ -10869,19 +10869,19 @@
       </c>
       <c r="D387" t="inlineStr">
         <is>
-          <t>W. Schoutenstraat</t>
+          <t>Uilenstede</t>
         </is>
       </c>
       <c r="E387" t="inlineStr">
         <is>
-          <t>POINT (4.852596 52.3669952)</t>
+          <t>POINT (4.8692545 52.3212772)</t>
         </is>
       </c>
     </row>
     <row r="388">
       <c r="A388" t="inlineStr">
         <is>
-          <t>3307835928</t>
+          <t>3735469931</t>
         </is>
       </c>
       <c r="B388" t="inlineStr">
@@ -10896,19 +10896,19 @@
       </c>
       <c r="D388" t="inlineStr">
         <is>
-          <t>W. Schoutenstraat</t>
+          <t>Bob Haarmslaan</t>
         </is>
       </c>
       <c r="E388" t="inlineStr">
         <is>
-          <t>POINT (4.8523612 52.3673886)</t>
+          <t>POINT (4.9685823 52.3691619)</t>
         </is>
       </c>
     </row>
     <row r="389">
       <c r="A389" t="inlineStr">
         <is>
-          <t>3308281969</t>
+          <t>4103562362</t>
         </is>
       </c>
       <c r="B389" t="inlineStr">
@@ -10923,19 +10923,19 @@
       </c>
       <c r="D389" t="inlineStr">
         <is>
-          <t>Ouderkerkerlaan</t>
+          <t>A. J. Ernststraat</t>
         </is>
       </c>
       <c r="E389" t="inlineStr">
         <is>
-          <t>POINT (4.8674156 52.2961484)</t>
+          <t>POINT (4.8688168 52.3325431)</t>
         </is>
       </c>
     </row>
     <row r="390">
       <c r="A390" t="inlineStr">
         <is>
-          <t>3308281970</t>
+          <t>4103562364</t>
         </is>
       </c>
       <c r="B390" t="inlineStr">
@@ -10950,19 +10950,19 @@
       </c>
       <c r="D390" t="inlineStr">
         <is>
-          <t>Sacharovlaan</t>
+          <t>Amstelveen Stadshart</t>
         </is>
       </c>
       <c r="E390" t="inlineStr">
         <is>
-          <t>POINT (4.8327699 52.2825723)</t>
+          <t>POINT (4.8671267 52.3013177)</t>
         </is>
       </c>
     </row>
     <row r="391">
       <c r="A391" t="inlineStr">
         <is>
-          <t>3308281975</t>
+          <t>4103562365</t>
         </is>
       </c>
       <c r="B391" t="inlineStr">
@@ -10977,19 +10977,19 @@
       </c>
       <c r="D391" t="inlineStr">
         <is>
-          <t>Westwijk</t>
+          <t>Amstelveen Stadshart</t>
         </is>
       </c>
       <c r="E391" t="inlineStr">
         <is>
-          <t>POINT (4.8305377 52.2743532)</t>
+          <t>POINT (4.867149 52.3013453)</t>
         </is>
       </c>
     </row>
     <row r="392">
       <c r="A392" t="inlineStr">
         <is>
-          <t>3371092710</t>
+          <t>4103562373</t>
         </is>
       </c>
       <c r="B392" t="inlineStr">
@@ -11004,19 +11004,19 @@
       </c>
       <c r="D392" t="inlineStr">
         <is>
-          <t>Westlandgracht</t>
+          <t>Onderuit</t>
         </is>
       </c>
       <c r="E392" t="inlineStr">
         <is>
-          <t>POINT (4.8450157 52.3515947)</t>
+          <t>POINT (4.8724478 52.3079604)</t>
         </is>
       </c>
     </row>
     <row r="393">
       <c r="A393" t="inlineStr">
         <is>
-          <t>3561192480</t>
+          <t>4103562375</t>
         </is>
       </c>
       <c r="B393" t="inlineStr">
@@ -11031,19 +11031,19 @@
       </c>
       <c r="D393" t="inlineStr">
         <is>
-          <t>Uilenstede</t>
+          <t>Onderuit</t>
         </is>
       </c>
       <c r="E393" t="inlineStr">
         <is>
-          <t>POINT (4.8692545 52.3212772)</t>
+          <t>POINT (4.8725929 52.3080875)</t>
         </is>
       </c>
     </row>
     <row r="394">
       <c r="A394" t="inlineStr">
         <is>
-          <t>3735469931</t>
+          <t>4103567889</t>
         </is>
       </c>
       <c r="B394" t="inlineStr">
@@ -11058,24 +11058,24 @@
       </c>
       <c r="D394" t="inlineStr">
         <is>
-          <t>Bob Haarmslaan</t>
+          <t>Van Boshuizenstraat</t>
         </is>
       </c>
       <c r="E394" t="inlineStr">
         <is>
-          <t>POINT (4.9685823 52.3691619)</t>
+          <t>POINT (4.8690319 52.3248972)</t>
         </is>
       </c>
     </row>
     <row r="395">
       <c r="A395" t="inlineStr">
         <is>
-          <t>3762168710</t>
+          <t>4103567892</t>
         </is>
       </c>
       <c r="B395" t="inlineStr">
         <is>
-          <t>platform</t>
+          <t>stop_position</t>
         </is>
       </c>
       <c r="C395" t="inlineStr">
@@ -11085,19 +11085,19 @@
       </c>
       <c r="D395" t="inlineStr">
         <is>
-          <t>Sierplein</t>
+          <t>Zonnestein</t>
         </is>
       </c>
       <c r="E395" t="inlineStr">
         <is>
-          <t>POINT (4.827417 52.3548692)</t>
+          <t>POINT (4.8722618 52.3121859)</t>
         </is>
       </c>
     </row>
     <row r="396">
       <c r="A396" t="inlineStr">
         <is>
-          <t>4103562362</t>
+          <t>4249280290</t>
         </is>
       </c>
       <c r="B396" t="inlineStr">
@@ -11112,19 +11112,19 @@
       </c>
       <c r="D396" t="inlineStr">
         <is>
-          <t>A. J. Ernststraat</t>
+          <t>Amsterdamseweg</t>
         </is>
       </c>
       <c r="E396" t="inlineStr">
         <is>
-          <t>POINT (4.8688168 52.3325431)</t>
+          <t>POINT (4.855406 52.3156718)</t>
         </is>
       </c>
     </row>
     <row r="397">
       <c r="A397" t="inlineStr">
         <is>
-          <t>4103562364</t>
+          <t>4249280292</t>
         </is>
       </c>
       <c r="B397" t="inlineStr">
@@ -11139,19 +11139,19 @@
       </c>
       <c r="D397" t="inlineStr">
         <is>
-          <t>Amstelveen Stadshart</t>
+          <t>Haarlemmermeerstation</t>
         </is>
       </c>
       <c r="E397" t="inlineStr">
         <is>
-          <t>POINT (4.8671267 52.3013177)</t>
+          <t>POINT (4.8562313 52.3493132)</t>
         </is>
       </c>
     </row>
     <row r="398">
       <c r="A398" t="inlineStr">
         <is>
-          <t>4103562365</t>
+          <t>4249280294</t>
         </is>
       </c>
       <c r="B398" t="inlineStr">
@@ -11166,19 +11166,19 @@
       </c>
       <c r="D398" t="inlineStr">
         <is>
-          <t>Amstelveen Stadshart</t>
+          <t>Jollenpad</t>
         </is>
       </c>
       <c r="E398" t="inlineStr">
         <is>
-          <t>POINT (4.867149 52.3013453)</t>
+          <t>POINT (4.8543795 52.3352719)</t>
         </is>
       </c>
     </row>
     <row r="399">
       <c r="A399" t="inlineStr">
         <is>
-          <t>4103562373</t>
+          <t>4249280297</t>
         </is>
       </c>
       <c r="B399" t="inlineStr">
@@ -11193,19 +11193,19 @@
       </c>
       <c r="D399" t="inlineStr">
         <is>
-          <t>Onderuit</t>
+          <t>Koenenkade</t>
         </is>
       </c>
       <c r="E399" t="inlineStr">
         <is>
-          <t>POINT (4.8724478 52.3079604)</t>
+          <t>POINT (4.8560952 52.3305598)</t>
         </is>
       </c>
     </row>
     <row r="400">
       <c r="A400" t="inlineStr">
         <is>
-          <t>4103562375</t>
+          <t>4249280298</t>
         </is>
       </c>
       <c r="B400" t="inlineStr">
@@ -11220,19 +11220,19 @@
       </c>
       <c r="D400" t="inlineStr">
         <is>
-          <t>Onderuit</t>
+          <t>Noorddammerlaan</t>
         </is>
       </c>
       <c r="E400" t="inlineStr">
         <is>
-          <t>POINT (4.8725929 52.3080875)</t>
+          <t>POINT (4.8403296 52.292425)</t>
         </is>
       </c>
     </row>
     <row r="401">
       <c r="A401" t="inlineStr">
         <is>
-          <t>4103567889</t>
+          <t>4475841121</t>
         </is>
       </c>
       <c r="B401" t="inlineStr">
@@ -11247,19 +11247,19 @@
       </c>
       <c r="D401" t="inlineStr">
         <is>
-          <t>Van Boshuizenstraat</t>
+          <t>Centraal Station</t>
         </is>
       </c>
       <c r="E401" t="inlineStr">
         <is>
-          <t>POINT (4.8690319 52.3248972)</t>
+          <t>POINT (4.902591 52.3790626)</t>
         </is>
       </c>
     </row>
     <row r="402">
       <c r="A402" t="inlineStr">
         <is>
-          <t>4103567892</t>
+          <t>4519556579</t>
         </is>
       </c>
       <c r="B402" t="inlineStr">
@@ -11274,19 +11274,19 @@
       </c>
       <c r="D402" t="inlineStr">
         <is>
-          <t>Zonnestein</t>
+          <t>Kalfjeslaan</t>
         </is>
       </c>
       <c r="E402" t="inlineStr">
         <is>
-          <t>POINT (4.8722618 52.3121859)</t>
+          <t>POINT (4.8565037 52.3218182)</t>
         </is>
       </c>
     </row>
     <row r="403">
       <c r="A403" t="inlineStr">
         <is>
-          <t>4249280290</t>
+          <t>4541648287</t>
         </is>
       </c>
       <c r="B403" t="inlineStr">
@@ -11301,19 +11301,19 @@
       </c>
       <c r="D403" t="inlineStr">
         <is>
-          <t>Amsterdamseweg</t>
+          <t>Molenwerf</t>
         </is>
       </c>
       <c r="E403" t="inlineStr">
         <is>
-          <t>POINT (4.855406 52.3156718)</t>
+          <t>POINT (4.8465973 52.3858579)</t>
         </is>
       </c>
     </row>
     <row r="404">
       <c r="A404" t="inlineStr">
         <is>
-          <t>4249280292</t>
+          <t>4851477406</t>
         </is>
       </c>
       <c r="B404" t="inlineStr">
@@ -11328,24 +11328,24 @@
       </c>
       <c r="D404" t="inlineStr">
         <is>
-          <t>Haarlemmermeerstation</t>
+          <t>De Pijp</t>
         </is>
       </c>
       <c r="E404" t="inlineStr">
         <is>
-          <t>POINT (4.8562313 52.3493132)</t>
+          <t>POINT (4.8901771 52.3526769)</t>
         </is>
       </c>
     </row>
     <row r="405">
       <c r="A405" t="inlineStr">
         <is>
-          <t>4249280293</t>
+          <t>4851477407</t>
         </is>
       </c>
       <c r="B405" t="inlineStr">
         <is>
-          <t>platform</t>
+          <t>stop_position</t>
         </is>
       </c>
       <c r="C405" t="inlineStr">
@@ -11355,19 +11355,19 @@
       </c>
       <c r="D405" t="inlineStr">
         <is>
-          <t>IJsbaanpad</t>
+          <t>Marie Heinekenplein</t>
         </is>
       </c>
       <c r="E405" t="inlineStr">
         <is>
-          <t>POINT (4.8523781 52.3411758)</t>
+          <t>POINT (4.8907033 52.3570037)</t>
         </is>
       </c>
     </row>
     <row r="406">
       <c r="A406" t="inlineStr">
         <is>
-          <t>4249280294</t>
+          <t>4851477410</t>
         </is>
       </c>
       <c r="B406" t="inlineStr">
@@ -11382,19 +11382,19 @@
       </c>
       <c r="D406" t="inlineStr">
         <is>
-          <t>Jollenpad</t>
+          <t>Muntplein</t>
         </is>
       </c>
       <c r="E406" t="inlineStr">
         <is>
-          <t>POINT (4.8543795 52.3352719)</t>
+          <t>POINT (4.8931342 52.3662653)</t>
         </is>
       </c>
     </row>
     <row r="407">
       <c r="A407" t="inlineStr">
         <is>
-          <t>4249280297</t>
+          <t>4851478923</t>
         </is>
       </c>
       <c r="B407" t="inlineStr">
@@ -11409,19 +11409,19 @@
       </c>
       <c r="D407" t="inlineStr">
         <is>
-          <t>Koenenkade</t>
+          <t>Muntplein</t>
         </is>
       </c>
       <c r="E407" t="inlineStr">
         <is>
-          <t>POINT (4.8560952 52.3305598)</t>
+          <t>POINT (4.8930583 52.3658545)</t>
         </is>
       </c>
     </row>
     <row r="408">
       <c r="A408" t="inlineStr">
         <is>
-          <t>4249280298</t>
+          <t>4851478926</t>
         </is>
       </c>
       <c r="B408" t="inlineStr">
@@ -11436,24 +11436,24 @@
       </c>
       <c r="D408" t="inlineStr">
         <is>
-          <t>Noorddammerlaan</t>
+          <t>Marie Heinekenplein</t>
         </is>
       </c>
       <c r="E408" t="inlineStr">
         <is>
-          <t>POINT (4.8403296 52.292425)</t>
+          <t>POINT (4.8907718 52.3571177)</t>
         </is>
       </c>
     </row>
     <row r="409">
       <c r="A409" t="inlineStr">
         <is>
-          <t>4422115060</t>
+          <t>4957591472</t>
         </is>
       </c>
       <c r="B409" t="inlineStr">
         <is>
-          <t>platform</t>
+          <t>stop_position</t>
         </is>
       </c>
       <c r="C409" t="inlineStr">
@@ -11463,19 +11463,19 @@
       </c>
       <c r="D409" t="inlineStr">
         <is>
-          <t>Station Sloterdijk</t>
+          <t>Jan Wilsbrug</t>
         </is>
       </c>
       <c r="E409" t="inlineStr">
         <is>
-          <t>POINT (4.8392534 52.3882364)</t>
+          <t>POINT (4.8509865 52.3442966)</t>
         </is>
       </c>
     </row>
     <row r="410">
       <c r="A410" t="inlineStr">
         <is>
-          <t>4475841121</t>
+          <t>4957591524</t>
         </is>
       </c>
       <c r="B410" t="inlineStr">
@@ -11490,19 +11490,19 @@
       </c>
       <c r="D410" t="inlineStr">
         <is>
-          <t>Centraal Station</t>
+          <t>Station Amstelveen</t>
         </is>
       </c>
       <c r="E410" t="inlineStr">
         <is>
-          <t>POINT (4.902591 52.3790626)</t>
+          <t>POINT (4.8477382 52.3013966)</t>
         </is>
       </c>
     </row>
     <row r="411">
       <c r="A411" t="inlineStr">
         <is>
-          <t>4519556579</t>
+          <t>4957591538</t>
         </is>
       </c>
       <c r="B411" t="inlineStr">
@@ -11517,19 +11517,19 @@
       </c>
       <c r="D411" t="inlineStr">
         <is>
-          <t>Kalfjeslaan</t>
+          <t>Handweg</t>
         </is>
       </c>
       <c r="E411" t="inlineStr">
         <is>
-          <t>POINT (4.8565037 52.3218182)</t>
+          <t>POINT (4.8453672 52.2994491)</t>
         </is>
       </c>
     </row>
     <row r="412">
       <c r="A412" t="inlineStr">
         <is>
-          <t>4541648287</t>
+          <t>4957592283</t>
         </is>
       </c>
       <c r="B412" t="inlineStr">
@@ -11544,24 +11544,24 @@
       </c>
       <c r="D412" t="inlineStr">
         <is>
-          <t>Molenwerf</t>
+          <t>Haarlemmermeerstation</t>
         </is>
       </c>
       <c r="E412" t="inlineStr">
         <is>
-          <t>POINT (4.8465973 52.3858579)</t>
+          <t>POINT (4.8564164 52.3492921)</t>
         </is>
       </c>
     </row>
     <row r="413">
       <c r="A413" t="inlineStr">
         <is>
-          <t>4621136127</t>
+          <t>4957592307</t>
         </is>
       </c>
       <c r="B413" t="inlineStr">
         <is>
-          <t>platform</t>
+          <t>stop_position</t>
         </is>
       </c>
       <c r="C413" t="inlineStr">
@@ -11571,24 +11571,24 @@
       </c>
       <c r="D413" t="inlineStr">
         <is>
-          <t>Oostpoort</t>
+          <t>Kalfjeslaan</t>
         </is>
       </c>
       <c r="E413" t="inlineStr">
         <is>
-          <t>POINT (4.9272548 52.357015)</t>
+          <t>POINT (4.8564951 52.3214358)</t>
         </is>
       </c>
     </row>
     <row r="414">
       <c r="A414" t="inlineStr">
         <is>
-          <t>4621705536</t>
+          <t>4957592331</t>
         </is>
       </c>
       <c r="B414" t="inlineStr">
         <is>
-          <t>platform</t>
+          <t>stop_position</t>
         </is>
       </c>
       <c r="C414" t="inlineStr">
@@ -11598,24 +11598,24 @@
       </c>
       <c r="D414" t="inlineStr">
         <is>
-          <t>Oostpoort</t>
+          <t>Van Nijenrodeweg</t>
         </is>
       </c>
       <c r="E414" t="inlineStr">
         <is>
-          <t>POINT (4.9268761 52.3574304)</t>
+          <t>POINT (4.8565395 52.3274177)</t>
         </is>
       </c>
     </row>
     <row r="415">
       <c r="A415" t="inlineStr">
         <is>
-          <t>4621705537</t>
+          <t>4957592436</t>
         </is>
       </c>
       <c r="B415" t="inlineStr">
         <is>
-          <t>platform</t>
+          <t>stop_position</t>
         </is>
       </c>
       <c r="C415" t="inlineStr">
@@ -11625,24 +11625,24 @@
       </c>
       <c r="D415" t="inlineStr">
         <is>
-          <t>Linnaeusstraat</t>
+          <t>Molenweg</t>
         </is>
       </c>
       <c r="E415" t="inlineStr">
         <is>
-          <t>POINT (4.9256886 52.3601299)</t>
+          <t>POINT (4.8506593 52.3085646)</t>
         </is>
       </c>
     </row>
     <row r="416">
       <c r="A416" t="inlineStr">
         <is>
-          <t>4621705790</t>
+          <t>4957592454</t>
         </is>
       </c>
       <c r="B416" t="inlineStr">
         <is>
-          <t>platform</t>
+          <t>stop_position</t>
         </is>
       </c>
       <c r="C416" t="inlineStr">
@@ -11652,24 +11652,24 @@
       </c>
       <c r="D416" t="inlineStr">
         <is>
-          <t>Azartplein</t>
+          <t>Karselaan</t>
         </is>
       </c>
       <c r="E416" t="inlineStr">
         <is>
-          <t>POINT (4.9373845 52.3768178)</t>
+          <t>POINT (4.8507838 52.3109438)</t>
         </is>
       </c>
     </row>
     <row r="417">
       <c r="A417" t="inlineStr">
         <is>
-          <t>4621705791</t>
+          <t>4957592461</t>
         </is>
       </c>
       <c r="B417" t="inlineStr">
         <is>
-          <t>platform</t>
+          <t>stop_position</t>
         </is>
       </c>
       <c r="C417" t="inlineStr">
@@ -11679,24 +11679,24 @@
       </c>
       <c r="D417" t="inlineStr">
         <is>
-          <t>Azartplein</t>
+          <t>Karselaan</t>
         </is>
       </c>
       <c r="E417" t="inlineStr">
         <is>
-          <t>POINT (4.9372894 52.3766104)</t>
+          <t>POINT (4.851035 52.3115129)</t>
         </is>
       </c>
     </row>
     <row r="418">
       <c r="A418" t="inlineStr">
         <is>
-          <t>4622218805</t>
+          <t>4957592561</t>
         </is>
       </c>
       <c r="B418" t="inlineStr">
         <is>
-          <t>platform</t>
+          <t>stop_position</t>
         </is>
       </c>
       <c r="C418" t="inlineStr">
@@ -11706,24 +11706,24 @@
       </c>
       <c r="D418" t="inlineStr">
         <is>
-          <t>Station RAI</t>
+          <t>Remise Karperweg</t>
         </is>
       </c>
       <c r="E418" t="inlineStr">
         <is>
-          <t>POINT (4.8906652 52.336909)</t>
+          <t>POINT (4.8534016 52.3475341)</t>
         </is>
       </c>
     </row>
     <row r="419">
       <c r="A419" t="inlineStr">
         <is>
-          <t>4623266146</t>
+          <t>4957593819</t>
         </is>
       </c>
       <c r="B419" t="inlineStr">
         <is>
-          <t>platform</t>
+          <t>stop_position</t>
         </is>
       </c>
       <c r="C419" t="inlineStr">
@@ -11733,24 +11733,24 @@
       </c>
       <c r="D419" t="inlineStr">
         <is>
-          <t>Corantijnstraat</t>
+          <t>Bovenkerk</t>
         </is>
       </c>
       <c r="E419" t="inlineStr">
         <is>
-          <t>POINT (4.8532169 52.3615939)</t>
+          <t>POINT (4.8391034 52.2908393)</t>
         </is>
       </c>
     </row>
     <row r="420">
       <c r="A420" t="inlineStr">
         <is>
-          <t>4623266147</t>
+          <t>4957593836</t>
         </is>
       </c>
       <c r="B420" t="inlineStr">
         <is>
-          <t>platform</t>
+          <t>stop_position</t>
         </is>
       </c>
       <c r="C420" t="inlineStr">
@@ -11760,24 +11760,24 @@
       </c>
       <c r="D420" t="inlineStr">
         <is>
-          <t>W. Schoutenweg</t>
+          <t>Bovenkerk</t>
         </is>
       </c>
       <c r="E420" t="inlineStr">
         <is>
-          <t>POINT (4.8523338 52.3673843)</t>
+          <t>POINT (4.8391796 52.2910359)</t>
         </is>
       </c>
     </row>
     <row r="421">
       <c r="A421" t="inlineStr">
         <is>
-          <t>4623266155</t>
+          <t>5004454871</t>
         </is>
       </c>
       <c r="B421" t="inlineStr">
         <is>
-          <t>platform</t>
+          <t>stop_position</t>
         </is>
       </c>
       <c r="C421" t="inlineStr">
@@ -11787,24 +11787,24 @@
       </c>
       <c r="D421" t="inlineStr">
         <is>
-          <t>Ceintuurbaan</t>
+          <t>Leidseplein</t>
         </is>
       </c>
       <c r="E421" t="inlineStr">
         <is>
-          <t>POINT (4.9010451 52.3550281)</t>
+          <t>POINT (4.8810698 52.3632085)</t>
         </is>
       </c>
     </row>
     <row r="422">
       <c r="A422" t="inlineStr">
         <is>
-          <t>4742257321</t>
+          <t>5162821556</t>
         </is>
       </c>
       <c r="B422" t="inlineStr">
         <is>
-          <t>platform</t>
+          <t>stop_position</t>
         </is>
       </c>
       <c r="C422" t="inlineStr">
@@ -11814,19 +11814,19 @@
       </c>
       <c r="D422" t="inlineStr">
         <is>
-          <t>Hoofddorpplein</t>
+          <t>Station Zuid</t>
         </is>
       </c>
       <c r="E422" t="inlineStr">
         <is>
-          <t>POINT (4.8501987 52.3515527)</t>
+          <t>POINT (4.8731849 52.3408165)</t>
         </is>
       </c>
     </row>
     <row r="423">
       <c r="A423" t="inlineStr">
         <is>
-          <t>4851477406</t>
+          <t>5399178947</t>
         </is>
       </c>
       <c r="B423" t="inlineStr">
@@ -11841,19 +11841,19 @@
       </c>
       <c r="D423" t="inlineStr">
         <is>
-          <t>De Pijp</t>
+          <t>Prinsengracht</t>
         </is>
       </c>
       <c r="E423" t="inlineStr">
         <is>
-          <t>POINT (4.8901771 52.3526769)</t>
+          <t>POINT (4.898949 52.3620972)</t>
         </is>
       </c>
     </row>
     <row r="424">
       <c r="A424" t="inlineStr">
         <is>
-          <t>4851477407</t>
+          <t>5399178948</t>
         </is>
       </c>
       <c r="B424" t="inlineStr">
@@ -11868,19 +11868,19 @@
       </c>
       <c r="D424" t="inlineStr">
         <is>
-          <t>Marie Heinekenplein</t>
+          <t>Prinsengracht</t>
         </is>
       </c>
       <c r="E424" t="inlineStr">
         <is>
-          <t>POINT (4.8907033 52.3570037)</t>
+          <t>POINT (4.8989773 52.3621338)</t>
         </is>
       </c>
     </row>
     <row r="425">
       <c r="A425" t="inlineStr">
         <is>
-          <t>4851477410</t>
+          <t>5487043827</t>
         </is>
       </c>
       <c r="B425" t="inlineStr">
@@ -11895,19 +11895,19 @@
       </c>
       <c r="D425" t="inlineStr">
         <is>
-          <t>Muntplein</t>
+          <t>Sniep</t>
         </is>
       </c>
       <c r="E425" t="inlineStr">
         <is>
-          <t>POINT (4.8931342 52.3662653)</t>
+          <t>POINT (4.9697229 52.3364299)</t>
         </is>
       </c>
     </row>
     <row r="426">
       <c r="A426" t="inlineStr">
         <is>
-          <t>4851478923</t>
+          <t>5509458843</t>
         </is>
       </c>
       <c r="B426" t="inlineStr">
@@ -11922,19 +11922,19 @@
       </c>
       <c r="D426" t="inlineStr">
         <is>
-          <t>Muntplein</t>
+          <t>Amstelstation</t>
         </is>
       </c>
       <c r="E426" t="inlineStr">
         <is>
-          <t>POINT (4.8930583 52.3658545)</t>
+          <t>POINT (4.9178945 52.347445)</t>
         </is>
       </c>
     </row>
     <row r="427">
       <c r="A427" t="inlineStr">
         <is>
-          <t>4851478926</t>
+          <t>5792105369</t>
         </is>
       </c>
       <c r="B427" t="inlineStr">
@@ -11949,19 +11949,19 @@
       </c>
       <c r="D427" t="inlineStr">
         <is>
-          <t>Marie Heinekenplein</t>
+          <t>Frederiksplein</t>
         </is>
       </c>
       <c r="E427" t="inlineStr">
         <is>
-          <t>POINT (4.8907718 52.3571177)</t>
+          <t>POINT (4.9000102 52.3596835)</t>
         </is>
       </c>
     </row>
     <row r="428">
       <c r="A428" t="inlineStr">
         <is>
-          <t>4957591472</t>
+          <t>5792762173</t>
         </is>
       </c>
       <c r="B428" t="inlineStr">
@@ -11976,19 +11976,19 @@
       </c>
       <c r="D428" t="inlineStr">
         <is>
-          <t>Jan Wilsbrug</t>
+          <t>Vijzelgracht</t>
         </is>
       </c>
       <c r="E428" t="inlineStr">
         <is>
-          <t>POINT (4.8509865 52.3442966)</t>
+          <t>POINT (4.8925358 52.3594772)</t>
         </is>
       </c>
     </row>
     <row r="429">
       <c r="A429" t="inlineStr">
         <is>
-          <t>4957591524</t>
+          <t>6536976362</t>
         </is>
       </c>
       <c r="B429" t="inlineStr">
@@ -12003,19 +12003,19 @@
       </c>
       <c r="D429" t="inlineStr">
         <is>
-          <t>Station Amstelveen</t>
+          <t>Diemerbrug</t>
         </is>
       </c>
       <c r="E429" t="inlineStr">
         <is>
-          <t>POINT (4.8477382 52.3013966)</t>
+          <t>POINT (4.9613021 52.3382375)</t>
         </is>
       </c>
     </row>
     <row r="430">
       <c r="A430" t="inlineStr">
         <is>
-          <t>4957591538</t>
+          <t>6536976363</t>
         </is>
       </c>
       <c r="B430" t="inlineStr">
@@ -12030,19 +12030,19 @@
       </c>
       <c r="D430" t="inlineStr">
         <is>
-          <t>Handweg</t>
+          <t>Diemerbrug</t>
         </is>
       </c>
       <c r="E430" t="inlineStr">
         <is>
-          <t>POINT (4.8453672 52.2994491)</t>
+          <t>POINT (4.9610512 52.3383458)</t>
         </is>
       </c>
     </row>
     <row r="431">
       <c r="A431" t="inlineStr">
         <is>
-          <t>4957592283</t>
+          <t>6578508136</t>
         </is>
       </c>
       <c r="B431" t="inlineStr">
@@ -12057,19 +12057,19 @@
       </c>
       <c r="D431" t="inlineStr">
         <is>
-          <t>Haarlemmermeerstation</t>
+          <t>De Clercqstraat</t>
         </is>
       </c>
       <c r="E431" t="inlineStr">
         <is>
-          <t>POINT (4.8564164 52.3492921)</t>
+          <t>POINT (4.8703967 52.3706445)</t>
         </is>
       </c>
     </row>
     <row r="432">
       <c r="A432" t="inlineStr">
         <is>
-          <t>4957592307</t>
+          <t>6638921572</t>
         </is>
       </c>
       <c r="B432" t="inlineStr">
@@ -12084,19 +12084,19 @@
       </c>
       <c r="D432" t="inlineStr">
         <is>
-          <t>Kalfjeslaan</t>
+          <t>Sportlaan</t>
         </is>
       </c>
       <c r="E432" t="inlineStr">
         <is>
-          <t>POINT (4.8564951 52.3214358)</t>
+          <t>POINT (4.863249 52.289791)</t>
         </is>
       </c>
     </row>
     <row r="433">
       <c r="A433" t="inlineStr">
         <is>
-          <t>4957592331</t>
+          <t>6638921582</t>
         </is>
       </c>
       <c r="B433" t="inlineStr">
@@ -12111,19 +12111,19 @@
       </c>
       <c r="D433" t="inlineStr">
         <is>
-          <t>Van Nijenrodeweg</t>
+          <t>Sportlaan</t>
         </is>
       </c>
       <c r="E433" t="inlineStr">
         <is>
-          <t>POINT (4.8565395 52.3274177)</t>
+          <t>POINT (4.863919 52.2904102)</t>
         </is>
       </c>
     </row>
     <row r="434">
       <c r="A434" t="inlineStr">
         <is>
-          <t>4957592436</t>
+          <t>6639049950</t>
         </is>
       </c>
       <c r="B434" t="inlineStr">
@@ -12138,19 +12138,19 @@
       </c>
       <c r="D434" t="inlineStr">
         <is>
-          <t>Molenweg</t>
+          <t>Kronenburg</t>
         </is>
       </c>
       <c r="E434" t="inlineStr">
         <is>
-          <t>POINT (4.8506593 52.3085646)</t>
+          <t>POINT (4.8706118 52.3160769)</t>
         </is>
       </c>
     </row>
     <row r="435">
       <c r="A435" t="inlineStr">
         <is>
-          <t>4957592454</t>
+          <t>6639049951</t>
         </is>
       </c>
       <c r="B435" t="inlineStr">
@@ -12165,19 +12165,19 @@
       </c>
       <c r="D435" t="inlineStr">
         <is>
-          <t>Karselaan</t>
+          <t>Kronenburg</t>
         </is>
       </c>
       <c r="E435" t="inlineStr">
         <is>
-          <t>POINT (4.8507838 52.3109438)</t>
+          <t>POINT (4.8706466 52.3156231)</t>
         </is>
       </c>
     </row>
     <row r="436">
       <c r="A436" t="inlineStr">
         <is>
-          <t>4957592461</t>
+          <t>6639049972</t>
         </is>
       </c>
       <c r="B436" t="inlineStr">
@@ -12192,19 +12192,19 @@
       </c>
       <c r="D436" t="inlineStr">
         <is>
-          <t>Karselaan</t>
+          <t>Zonnestein</t>
         </is>
       </c>
       <c r="E436" t="inlineStr">
         <is>
-          <t>POINT (4.851035 52.3115129)</t>
+          <t>POINT (4.8723368 52.3114898)</t>
         </is>
       </c>
     </row>
     <row r="437">
       <c r="A437" t="inlineStr">
         <is>
-          <t>4957592561</t>
+          <t>6654529709</t>
         </is>
       </c>
       <c r="B437" t="inlineStr">
@@ -12219,19 +12219,19 @@
       </c>
       <c r="D437" t="inlineStr">
         <is>
-          <t>Remise Karperweg</t>
+          <t>Amstelstation</t>
         </is>
       </c>
       <c r="E437" t="inlineStr">
         <is>
-          <t>POINT (4.8534016 52.3475341)</t>
+          <t>POINT (4.9178096 52.3474274)</t>
         </is>
       </c>
     </row>
     <row r="438">
       <c r="A438" t="inlineStr">
         <is>
-          <t>4957593819</t>
+          <t>6659367697</t>
         </is>
       </c>
       <c r="B438" t="inlineStr">
@@ -12246,19 +12246,19 @@
       </c>
       <c r="D438" t="inlineStr">
         <is>
-          <t>Bovenkerk</t>
+          <t>Maasstraat</t>
         </is>
       </c>
       <c r="E438" t="inlineStr">
         <is>
-          <t>POINT (4.8391034 52.2908393)</t>
+          <t>POINT (4.8954127 52.3470662)</t>
         </is>
       </c>
     </row>
     <row r="439">
       <c r="A439" t="inlineStr">
         <is>
-          <t>4957593836</t>
+          <t>6659367698</t>
         </is>
       </c>
       <c r="B439" t="inlineStr">
@@ -12273,19 +12273,19 @@
       </c>
       <c r="D439" t="inlineStr">
         <is>
-          <t>Bovenkerk</t>
+          <t>Maasstraat</t>
         </is>
       </c>
       <c r="E439" t="inlineStr">
         <is>
-          <t>POINT (4.8391796 52.2910359)</t>
+          <t>POINT (4.8947303 52.3468163)</t>
         </is>
       </c>
     </row>
     <row r="440">
       <c r="A440" t="inlineStr">
         <is>
-          <t>5004454871</t>
+          <t>6744452194</t>
         </is>
       </c>
       <c r="B440" t="inlineStr">
@@ -12300,19 +12300,19 @@
       </c>
       <c r="D440" t="inlineStr">
         <is>
-          <t>Leidseplein</t>
+          <t>Centraal Station</t>
         </is>
       </c>
       <c r="E440" t="inlineStr">
         <is>
-          <t>POINT (4.8810698 52.3632085)</t>
+          <t>POINT (4.8992878 52.3783193)</t>
         </is>
       </c>
     </row>
     <row r="441">
       <c r="A441" t="inlineStr">
         <is>
-          <t>5162821556</t>
+          <t>6744452236</t>
         </is>
       </c>
       <c r="B441" t="inlineStr">
@@ -12327,19 +12327,19 @@
       </c>
       <c r="D441" t="inlineStr">
         <is>
-          <t>Station Zuid</t>
+          <t>Centraal Station</t>
         </is>
       </c>
       <c r="E441" t="inlineStr">
         <is>
-          <t>POINT (4.8731849 52.3408165)</t>
+          <t>POINT (4.8991546 52.3782813)</t>
         </is>
       </c>
     </row>
     <row r="442">
       <c r="A442" t="inlineStr">
         <is>
-          <t>5399178947</t>
+          <t>6744452275</t>
         </is>
       </c>
       <c r="B442" t="inlineStr">
@@ -12354,19 +12354,19 @@
       </c>
       <c r="D442" t="inlineStr">
         <is>
-          <t>Prinsengracht</t>
+          <t>Centraal Station</t>
         </is>
       </c>
       <c r="E442" t="inlineStr">
         <is>
-          <t>POINT (4.898949 52.3620972)</t>
+          <t>POINT (4.8992178 52.378303)</t>
         </is>
       </c>
     </row>
     <row r="443">
       <c r="A443" t="inlineStr">
         <is>
-          <t>5399178948</t>
+          <t>6744452298</t>
         </is>
       </c>
       <c r="B443" t="inlineStr">
@@ -12381,19 +12381,19 @@
       </c>
       <c r="D443" t="inlineStr">
         <is>
-          <t>Prinsengracht</t>
+          <t>Centraal Station</t>
         </is>
       </c>
       <c r="E443" t="inlineStr">
         <is>
-          <t>POINT (4.8989773 52.3621338)</t>
+          <t>POINT (4.8988712 52.3786582)</t>
         </is>
       </c>
     </row>
     <row r="444">
       <c r="A444" t="inlineStr">
         <is>
-          <t>5487043827</t>
+          <t>6744452331</t>
         </is>
       </c>
       <c r="B444" t="inlineStr">
@@ -12408,19 +12408,19 @@
       </c>
       <c r="D444" t="inlineStr">
         <is>
-          <t>Sniep</t>
+          <t>Centraal Station</t>
         </is>
       </c>
       <c r="E444" t="inlineStr">
         <is>
-          <t>POINT (4.9697229 52.3364299)</t>
+          <t>POINT (4.8989173 52.378697)</t>
         </is>
       </c>
     </row>
     <row r="445">
       <c r="A445" t="inlineStr">
         <is>
-          <t>5509458843</t>
+          <t>6744452341</t>
         </is>
       </c>
       <c r="B445" t="inlineStr">
@@ -12435,19 +12435,19 @@
       </c>
       <c r="D445" t="inlineStr">
         <is>
-          <t>Amstelstation</t>
+          <t>Centraal Station</t>
         </is>
       </c>
       <c r="E445" t="inlineStr">
         <is>
-          <t>POINT (4.9178945 52.347445)</t>
+          <t>POINT (4.8993575 52.3783416)</t>
         </is>
       </c>
     </row>
     <row r="446">
       <c r="A446" t="inlineStr">
         <is>
-          <t>5792105369</t>
+          <t>6841269796</t>
         </is>
       </c>
       <c r="B446" t="inlineStr">
@@ -12462,19 +12462,19 @@
       </c>
       <c r="D446" t="inlineStr">
         <is>
-          <t>Frederiksplein</t>
+          <t>Mercatorplein</t>
         </is>
       </c>
       <c r="E446" t="inlineStr">
         <is>
-          <t>POINT (4.9000102 52.3596835)</t>
+          <t>POINT (4.8500681 52.3704058)</t>
         </is>
       </c>
     </row>
     <row r="447">
       <c r="A447" t="inlineStr">
         <is>
-          <t>5792762173</t>
+          <t>6841269798</t>
         </is>
       </c>
       <c r="B447" t="inlineStr">
@@ -12489,24 +12489,24 @@
       </c>
       <c r="D447" t="inlineStr">
         <is>
-          <t>Vijzelgracht</t>
+          <t>Mercatorplein</t>
         </is>
       </c>
       <c r="E447" t="inlineStr">
         <is>
-          <t>POINT (4.8925358 52.3594772)</t>
+          <t>POINT (4.8499792 52.3706818)</t>
         </is>
       </c>
     </row>
     <row r="448">
       <c r="A448" t="inlineStr">
         <is>
-          <t>6063016778</t>
+          <t>6841407500</t>
         </is>
       </c>
       <c r="B448" t="inlineStr">
         <is>
-          <t>platform</t>
+          <t>stop_position</t>
         </is>
       </c>
       <c r="C448" t="inlineStr">
@@ -12516,24 +12516,24 @@
       </c>
       <c r="D448" t="inlineStr">
         <is>
-          <t>Ten Katestraat</t>
+          <t>Bos en Lommerplein</t>
         </is>
       </c>
       <c r="E448" t="inlineStr">
         <is>
-          <t>POINT (4.8677098 52.366052)</t>
+          <t>POINT (4.8464503 52.3771987)</t>
         </is>
       </c>
     </row>
     <row r="449">
       <c r="A449" t="inlineStr">
         <is>
-          <t>6063016783</t>
+          <t>6933147467</t>
         </is>
       </c>
       <c r="B449" t="inlineStr">
         <is>
-          <t>platform</t>
+          <t>stop_position</t>
         </is>
       </c>
       <c r="C449" t="inlineStr">
@@ -12548,19 +12548,19 @@
       </c>
       <c r="E449" t="inlineStr">
         <is>
-          <t>POINT (4.8629318 52.364899)</t>
+          <t>POINT (4.8657924 52.360364)</t>
         </is>
       </c>
     </row>
     <row r="450">
       <c r="A450" t="inlineStr">
         <is>
-          <t>6063021099</t>
+          <t>6960792121</t>
         </is>
       </c>
       <c r="B450" t="inlineStr">
         <is>
-          <t>platform</t>
+          <t>stop_position</t>
         </is>
       </c>
       <c r="C450" t="inlineStr">
@@ -12570,24 +12570,24 @@
       </c>
       <c r="D450" t="inlineStr">
         <is>
-          <t>Jan Pieter Heijestraat</t>
+          <t>Hoofdweg</t>
         </is>
       </c>
       <c r="E450" t="inlineStr">
         <is>
-          <t>POINT (4.8624131 52.3647128)</t>
+          <t>POINT (4.853975 52.3642479)</t>
         </is>
       </c>
     </row>
     <row r="451">
       <c r="A451" t="inlineStr">
         <is>
-          <t>6063021106</t>
+          <t>7026721051</t>
         </is>
       </c>
       <c r="B451" t="inlineStr">
         <is>
-          <t>platform</t>
+          <t>stop_position</t>
         </is>
       </c>
       <c r="C451" t="inlineStr">
@@ -12597,19 +12597,19 @@
       </c>
       <c r="D451" t="inlineStr">
         <is>
-          <t>Ten Katestraat</t>
+          <t>Lutmastraat</t>
         </is>
       </c>
       <c r="E451" t="inlineStr">
         <is>
-          <t>POINT (4.8673373 52.3658898)</t>
+          <t>POINT (4.903158 52.3517731)</t>
         </is>
       </c>
     </row>
     <row r="452">
       <c r="A452" t="inlineStr">
         <is>
-          <t>6536976362</t>
+          <t>7197053237</t>
         </is>
       </c>
       <c r="B452" t="inlineStr">
@@ -12624,19 +12624,19 @@
       </c>
       <c r="D452" t="inlineStr">
         <is>
-          <t>Diemerbrug</t>
+          <t>Weteringcircuit</t>
         </is>
       </c>
       <c r="E452" t="inlineStr">
         <is>
-          <t>POINT (4.9613021 52.3382375)</t>
+          <t>POINT (4.8923379 52.3593327)</t>
         </is>
       </c>
     </row>
     <row r="453">
       <c r="A453" t="inlineStr">
         <is>
-          <t>6536976363</t>
+          <t>7208341889</t>
         </is>
       </c>
       <c r="B453" t="inlineStr">
@@ -12651,19 +12651,19 @@
       </c>
       <c r="D453" t="inlineStr">
         <is>
-          <t>Diemerbrug</t>
+          <t>Hogeweg</t>
         </is>
       </c>
       <c r="E453" t="inlineStr">
         <is>
-          <t>POINT (4.9610512 52.3383458)</t>
+          <t>POINT (4.9310414 52.3534088)</t>
         </is>
       </c>
     </row>
     <row r="454">
       <c r="A454" t="inlineStr">
         <is>
-          <t>6578508136</t>
+          <t>7223733172</t>
         </is>
       </c>
       <c r="B454" t="inlineStr">
@@ -12678,19 +12678,19 @@
       </c>
       <c r="D454" t="inlineStr">
         <is>
-          <t>De Clercqstraat</t>
+          <t>Roelof Hartplein</t>
         </is>
       </c>
       <c r="E454" t="inlineStr">
         <is>
-          <t>POINT (4.8703967 52.3706445)</t>
+          <t>POINT (4.8828562 52.3527563)</t>
         </is>
       </c>
     </row>
     <row r="455">
       <c r="A455" t="inlineStr">
         <is>
-          <t>6638921572</t>
+          <t>7223761935</t>
         </is>
       </c>
       <c r="B455" t="inlineStr">
@@ -12705,19 +12705,19 @@
       </c>
       <c r="D455" t="inlineStr">
         <is>
-          <t>Sportlaan</t>
+          <t>Roelof Hartplein</t>
         </is>
       </c>
       <c r="E455" t="inlineStr">
         <is>
-          <t>POINT (4.863249 52.289791)</t>
+          <t>POINT (4.8820747 52.3526434)</t>
         </is>
       </c>
     </row>
     <row r="456">
       <c r="A456" t="inlineStr">
         <is>
-          <t>6638921582</t>
+          <t>7819762726</t>
         </is>
       </c>
       <c r="B456" t="inlineStr">
@@ -12732,19 +12732,19 @@
       </c>
       <c r="D456" t="inlineStr">
         <is>
-          <t>Sportlaan</t>
+          <t>Marnixplein</t>
         </is>
       </c>
       <c r="E456" t="inlineStr">
         <is>
-          <t>POINT (4.863919 52.2904102)</t>
+          <t>POINT (4.8786695 52.3778393)</t>
         </is>
       </c>
     </row>
     <row r="457">
       <c r="A457" t="inlineStr">
         <is>
-          <t>6639049950</t>
+          <t>7903232512</t>
         </is>
       </c>
       <c r="B457" t="inlineStr">
@@ -12759,19 +12759,19 @@
       </c>
       <c r="D457" t="inlineStr">
         <is>
-          <t>Kronenburg</t>
+          <t>Eerste Marnixdwarsstraat</t>
         </is>
       </c>
       <c r="E457" t="inlineStr">
         <is>
-          <t>POINT (4.8706118 52.3160769)</t>
+          <t>POINT (4.8821775 52.383238)</t>
         </is>
       </c>
     </row>
     <row r="458">
       <c r="A458" t="inlineStr">
         <is>
-          <t>6639049951</t>
+          <t>8721712740</t>
         </is>
       </c>
       <c r="B458" t="inlineStr">
@@ -12786,19 +12786,19 @@
       </c>
       <c r="D458" t="inlineStr">
         <is>
-          <t>Kronenburg</t>
+          <t>Koningsplein</t>
         </is>
       </c>
       <c r="E458" t="inlineStr">
         <is>
-          <t>POINT (4.8706466 52.3156231)</t>
+          <t>POINT (4.8893427 52.3677188)</t>
         </is>
       </c>
     </row>
     <row r="459">
       <c r="A459" t="inlineStr">
         <is>
-          <t>6639049972</t>
+          <t>9081861253</t>
         </is>
       </c>
       <c r="B459" t="inlineStr">
@@ -12813,19 +12813,19 @@
       </c>
       <c r="D459" t="inlineStr">
         <is>
-          <t>Zonnestein</t>
+          <t>Museumplein</t>
         </is>
       </c>
       <c r="E459" t="inlineStr">
         <is>
-          <t>POINT (4.8723368 52.3114898)</t>
+          <t>POINT (4.8806042 52.3587143)</t>
         </is>
       </c>
     </row>
     <row r="460">
       <c r="A460" t="inlineStr">
         <is>
-          <t>6654529709</t>
+          <t>9285523463</t>
         </is>
       </c>
       <c r="B460" t="inlineStr">
@@ -12840,24 +12840,24 @@
       </c>
       <c r="D460" t="inlineStr">
         <is>
-          <t>Amstelstation</t>
+          <t>Centraal Station</t>
         </is>
       </c>
       <c r="E460" t="inlineStr">
         <is>
-          <t>POINT (4.9178096 52.3474274)</t>
+          <t>POINT (4.9004043 52.3779466)</t>
         </is>
       </c>
     </row>
     <row r="461">
       <c r="A461" t="inlineStr">
         <is>
-          <t>6658943929</t>
+          <t>9332527257</t>
         </is>
       </c>
       <c r="B461" t="inlineStr">
         <is>
-          <t>platform</t>
+          <t>stop_position</t>
         </is>
       </c>
       <c r="C461" t="inlineStr">
@@ -12867,19 +12867,19 @@
       </c>
       <c r="D461" t="inlineStr">
         <is>
-          <t>Station RAI</t>
+          <t>Museumplein</t>
         </is>
       </c>
       <c r="E461" t="inlineStr">
         <is>
-          <t>POINT (4.8905318 52.3369147)</t>
+          <t>POINT (4.880612 52.3586985)</t>
         </is>
       </c>
     </row>
     <row r="462">
       <c r="A462" t="inlineStr">
         <is>
-          <t>6659367697</t>
+          <t>9533383353</t>
         </is>
       </c>
       <c r="B462" t="inlineStr">
@@ -12894,19 +12894,19 @@
       </c>
       <c r="D462" t="inlineStr">
         <is>
-          <t>Maasstraat</t>
+          <t>Parklaan</t>
         </is>
       </c>
       <c r="E462" t="inlineStr">
         <is>
-          <t>POINT (4.8954127 52.3470662)</t>
+          <t>POINT (4.8504873 52.3042535)</t>
         </is>
       </c>
     </row>
     <row r="463">
       <c r="A463" t="inlineStr">
         <is>
-          <t>6659367698</t>
+          <t>9552181254</t>
         </is>
       </c>
       <c r="B463" t="inlineStr">
@@ -12921,19 +12921,19 @@
       </c>
       <c r="D463" t="inlineStr">
         <is>
-          <t>Maasstraat</t>
+          <t>Korte 's-Gravesandestraat</t>
         </is>
       </c>
       <c r="E463" t="inlineStr">
         <is>
-          <t>POINT (4.8947303 52.3468163)</t>
+          <t>POINT (4.9141489 52.3624363)</t>
         </is>
       </c>
     </row>
     <row r="464">
       <c r="A464" t="inlineStr">
         <is>
-          <t>6744452194</t>
+          <t>9611530190</t>
         </is>
       </c>
       <c r="B464" t="inlineStr">
@@ -12948,19 +12948,19 @@
       </c>
       <c r="D464" t="inlineStr">
         <is>
-          <t>Centraal Station</t>
+          <t>v. Hilligaertstraat</t>
         </is>
       </c>
       <c r="E464" t="inlineStr">
         <is>
-          <t>POINT (4.8992878 52.3783193)</t>
+          <t>POINT (4.8914549 52.3494092)</t>
         </is>
       </c>
     </row>
     <row r="465">
       <c r="A465" t="inlineStr">
         <is>
-          <t>6744452236</t>
+          <t>9755695512</t>
         </is>
       </c>
       <c r="B465" t="inlineStr">
@@ -12975,19 +12975,19 @@
       </c>
       <c r="D465" t="inlineStr">
         <is>
-          <t>Centraal Station</t>
+          <t>Parklaan</t>
         </is>
       </c>
       <c r="E465" t="inlineStr">
         <is>
-          <t>POINT (4.8991546 52.3782813)</t>
+          <t>POINT (4.850538 52.3052105)</t>
         </is>
       </c>
     </row>
     <row r="466">
       <c r="A466" t="inlineStr">
         <is>
-          <t>6744452275</t>
+          <t>9807403547</t>
         </is>
       </c>
       <c r="B466" t="inlineStr">
@@ -13007,14 +13007,14 @@
       </c>
       <c r="E466" t="inlineStr">
         <is>
-          <t>POINT (4.8992178 52.378303)</t>
+          <t>POINT (4.9009807 52.3777002)</t>
         </is>
       </c>
     </row>
     <row r="467">
       <c r="A467" t="inlineStr">
         <is>
-          <t>6744452298</t>
+          <t>9807403548</t>
         </is>
       </c>
       <c r="B467" t="inlineStr">
@@ -13034,14 +13034,14 @@
       </c>
       <c r="E467" t="inlineStr">
         <is>
-          <t>POINT (4.8988712 52.3786582)</t>
+          <t>POINT (4.9009806 52.3777485)</t>
         </is>
       </c>
     </row>
     <row r="468">
       <c r="A468" t="inlineStr">
         <is>
-          <t>6744452331</t>
+          <t>9807403549</t>
         </is>
       </c>
       <c r="B468" t="inlineStr">
@@ -13061,14 +13061,14 @@
       </c>
       <c r="E468" t="inlineStr">
         <is>
-          <t>POINT (4.8989173 52.378697)</t>
+          <t>POINT (4.9009723 52.3777976)</t>
         </is>
       </c>
     </row>
     <row r="469">
       <c r="A469" t="inlineStr">
         <is>
-          <t>6744452341</t>
+          <t>9807478538</t>
         </is>
       </c>
       <c r="B469" t="inlineStr">
@@ -13088,19 +13088,19 @@
       </c>
       <c r="E469" t="inlineStr">
         <is>
-          <t>POINT (4.8993575 52.3783416)</t>
+          <t>POINT (4.8987647 52.3785952)</t>
         </is>
       </c>
     </row>
     <row r="470">
       <c r="A470" t="inlineStr">
         <is>
-          <t>6841172670</t>
+          <t>9807478539</t>
         </is>
       </c>
       <c r="B470" t="inlineStr">
         <is>
-          <t>platform</t>
+          <t>stop_position</t>
         </is>
       </c>
       <c r="C470" t="inlineStr">
@@ -13110,19 +13110,19 @@
       </c>
       <c r="D470" t="inlineStr">
         <is>
-          <t>Jan Tooropstraat</t>
+          <t>Centraal Station</t>
         </is>
       </c>
       <c r="E470" t="inlineStr">
         <is>
-          <t>POINT (4.837775 52.3708378)</t>
+          <t>POINT (4.8988204 52.3786244)</t>
         </is>
       </c>
     </row>
     <row r="471">
       <c r="A471" t="inlineStr">
         <is>
-          <t>6841269796</t>
+          <t>9982135037</t>
         </is>
       </c>
       <c r="B471" t="inlineStr">
@@ -13137,19 +13137,19 @@
       </c>
       <c r="D471" t="inlineStr">
         <is>
-          <t>Mercatorplein</t>
+          <t>Centraal Station</t>
         </is>
       </c>
       <c r="E471" t="inlineStr">
         <is>
-          <t>POINT (4.8500681 52.3704058)</t>
+          <t>POINT (4.9009743 52.3778019)</t>
         </is>
       </c>
     </row>
     <row r="472">
       <c r="A472" t="inlineStr">
         <is>
-          <t>6841269798</t>
+          <t>9982135040</t>
         </is>
       </c>
       <c r="B472" t="inlineStr">
@@ -13164,24 +13164,24 @@
       </c>
       <c r="D472" t="inlineStr">
         <is>
-          <t>Mercatorplein</t>
+          <t>Centraal Station</t>
         </is>
       </c>
       <c r="E472" t="inlineStr">
         <is>
-          <t>POINT (4.8499792 52.3706818)</t>
+          <t>POINT (4.9009825 52.3777528)</t>
         </is>
       </c>
     </row>
     <row r="473">
       <c r="A473" t="inlineStr">
         <is>
-          <t>6841340798</t>
+          <t>9982135046</t>
         </is>
       </c>
       <c r="B473" t="inlineStr">
         <is>
-          <t>platform</t>
+          <t>stop_position</t>
         </is>
       </c>
       <c r="C473" t="inlineStr">
@@ -13191,19 +13191,19 @@
       </c>
       <c r="D473" t="inlineStr">
         <is>
-          <t>W. Schoutenweg</t>
+          <t>Centraal Station</t>
         </is>
       </c>
       <c r="E473" t="inlineStr">
         <is>
-          <t>POINT (4.8526276 52.3670002)</t>
+          <t>POINT (4.9009826 52.3777045)</t>
         </is>
       </c>
     </row>
     <row r="474">
       <c r="A474" t="inlineStr">
         <is>
-          <t>6841407500</t>
+          <t>10273052985</t>
         </is>
       </c>
       <c r="B474" t="inlineStr">
@@ -13218,24 +13218,24 @@
       </c>
       <c r="D474" t="inlineStr">
         <is>
-          <t>Bos en Lommerplein</t>
+          <t>Paleisstraat</t>
         </is>
       </c>
       <c r="E474" t="inlineStr">
         <is>
-          <t>POINT (4.8464503 52.3771987)</t>
+          <t>POINT (4.890644 52.3719008)</t>
         </is>
       </c>
     </row>
     <row r="475">
       <c r="A475" t="inlineStr">
         <is>
-          <t>6841625492</t>
+          <t>10607209062</t>
         </is>
       </c>
       <c r="B475" t="inlineStr">
         <is>
-          <t>platform</t>
+          <t>stop_position</t>
         </is>
       </c>
       <c r="C475" t="inlineStr">
@@ -13245,1437 +13245,10 @@
       </c>
       <c r="D475" t="inlineStr">
         <is>
-          <t>Bos en Lommerweg</t>
+          <t>Vennepluimstraat</t>
         </is>
       </c>
       <c r="E475" t="inlineStr">
-        <is>
-          <t>POINT (4.8539231 52.3811265)</t>
-        </is>
-      </c>
-    </row>
-    <row r="476">
-      <c r="A476" t="inlineStr">
-        <is>
-          <t>6841904708</t>
-        </is>
-      </c>
-      <c r="B476" t="inlineStr">
-        <is>
-          <t>platform</t>
-        </is>
-      </c>
-      <c r="C476" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="D476" t="inlineStr">
-        <is>
-          <t>Nieuwezijds Kolk</t>
-        </is>
-      </c>
-      <c r="E476" t="inlineStr">
-        <is>
-          <t>POINT (4.8934966 52.3761133)</t>
-        </is>
-      </c>
-    </row>
-    <row r="477">
-      <c r="A477" t="inlineStr">
-        <is>
-          <t>6841904711</t>
-        </is>
-      </c>
-      <c r="B477" t="inlineStr">
-        <is>
-          <t>platform</t>
-        </is>
-      </c>
-      <c r="C477" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="D477" t="inlineStr">
-        <is>
-          <t>Nieuwezijds Kolk</t>
-        </is>
-      </c>
-      <c r="E477" t="inlineStr">
-        <is>
-          <t>POINT (4.8929776 52.3758742)</t>
-        </is>
-      </c>
-    </row>
-    <row r="478">
-      <c r="A478" t="inlineStr">
-        <is>
-          <t>6841972900</t>
-        </is>
-      </c>
-      <c r="B478" t="inlineStr">
-        <is>
-          <t>platform</t>
-        </is>
-      </c>
-      <c r="C478" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="D478" t="inlineStr">
-        <is>
-          <t>Westermarkt</t>
-        </is>
-      </c>
-      <c r="E478" t="inlineStr">
-        <is>
-          <t>POINT (4.8843324 52.3739904)</t>
-        </is>
-      </c>
-    </row>
-    <row r="479">
-      <c r="A479" t="inlineStr">
-        <is>
-          <t>6841972901</t>
-        </is>
-      </c>
-      <c r="B479" t="inlineStr">
-        <is>
-          <t>platform</t>
-        </is>
-      </c>
-      <c r="C479" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="D479" t="inlineStr">
-        <is>
-          <t>Westermarkt</t>
-        </is>
-      </c>
-      <c r="E479" t="inlineStr">
-        <is>
-          <t>POINT (4.8837761 52.374074)</t>
-        </is>
-      </c>
-    </row>
-    <row r="480">
-      <c r="A480" t="inlineStr">
-        <is>
-          <t>6930974593</t>
-        </is>
-      </c>
-      <c r="B480" t="inlineStr">
-        <is>
-          <t>platform</t>
-        </is>
-      </c>
-      <c r="C480" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="D480" t="inlineStr">
-        <is>
-          <t>Westlandgracht</t>
-        </is>
-      </c>
-      <c r="E480" t="inlineStr">
-        <is>
-          <t>POINT (4.8456283 52.3515485)</t>
-        </is>
-      </c>
-    </row>
-    <row r="481">
-      <c r="A481" t="inlineStr">
-        <is>
-          <t>6930974596</t>
-        </is>
-      </c>
-      <c r="B481" t="inlineStr">
-        <is>
-          <t>platform</t>
-        </is>
-      </c>
-      <c r="C481" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="D481" t="inlineStr">
-        <is>
-          <t>Westlandgracht</t>
-        </is>
-      </c>
-      <c r="E481" t="inlineStr">
-        <is>
-          <t>POINT (4.8450138 52.3516119)</t>
-        </is>
-      </c>
-    </row>
-    <row r="482">
-      <c r="A482" t="inlineStr">
-        <is>
-          <t>6931065247</t>
-        </is>
-      </c>
-      <c r="B482" t="inlineStr">
-        <is>
-          <t>platform</t>
-        </is>
-      </c>
-      <c r="C482" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="D482" t="inlineStr"/>
-      <c r="E482" t="inlineStr">
-        <is>
-          <t>POINT (4.8397565 52.3515773)</t>
-        </is>
-      </c>
-    </row>
-    <row r="483">
-      <c r="A483" t="inlineStr">
-        <is>
-          <t>6931065252</t>
-        </is>
-      </c>
-      <c r="B483" t="inlineStr">
-        <is>
-          <t>platform</t>
-        </is>
-      </c>
-      <c r="C483" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="D483" t="inlineStr">
-        <is>
-          <t>Delflandlaan</t>
-        </is>
-      </c>
-      <c r="E483" t="inlineStr">
-        <is>
-          <t>POINT (4.8416418 52.3515185)</t>
-        </is>
-      </c>
-    </row>
-    <row r="484">
-      <c r="A484" t="inlineStr">
-        <is>
-          <t>6932152168</t>
-        </is>
-      </c>
-      <c r="B484" t="inlineStr">
-        <is>
-          <t>platform</t>
-        </is>
-      </c>
-      <c r="C484" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="D484" t="inlineStr">
-        <is>
-          <t>Amstelveenseweg</t>
-        </is>
-      </c>
-      <c r="E484" t="inlineStr">
-        <is>
-          <t>POINT (4.856442 52.3517525)</t>
-        </is>
-      </c>
-    </row>
-    <row r="485">
-      <c r="A485" t="inlineStr">
-        <is>
-          <t>6932856211</t>
-        </is>
-      </c>
-      <c r="B485" t="inlineStr">
-        <is>
-          <t>platform</t>
-        </is>
-      </c>
-      <c r="C485" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="D485" t="inlineStr">
-        <is>
-          <t>Van Woustraat</t>
-        </is>
-      </c>
-      <c r="E485" t="inlineStr">
-        <is>
-          <t>POINT (4.9008751 52.3546713)</t>
-        </is>
-      </c>
-    </row>
-    <row r="486">
-      <c r="A486" t="inlineStr">
-        <is>
-          <t>6932905660</t>
-        </is>
-      </c>
-      <c r="B486" t="inlineStr">
-        <is>
-          <t>platform</t>
-        </is>
-      </c>
-      <c r="C486" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="D486" t="inlineStr">
-        <is>
-          <t>Van Woustraat</t>
-        </is>
-      </c>
-      <c r="E486" t="inlineStr">
-        <is>
-          <t>POINT (4.9015662 52.3549659)</t>
-        </is>
-      </c>
-    </row>
-    <row r="487">
-      <c r="A487" t="inlineStr">
-        <is>
-          <t>6932930237</t>
-        </is>
-      </c>
-      <c r="B487" t="inlineStr">
-        <is>
-          <t>platform</t>
-        </is>
-      </c>
-      <c r="C487" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="D487" t="inlineStr">
-        <is>
-          <t>Ceintuurbaan</t>
-        </is>
-      </c>
-      <c r="E487" t="inlineStr">
-        <is>
-          <t>POINT (4.9014661 52.3545836)</t>
-        </is>
-      </c>
-    </row>
-    <row r="488">
-      <c r="A488" t="inlineStr">
-        <is>
-          <t>6933147467</t>
-        </is>
-      </c>
-      <c r="B488" t="inlineStr">
-        <is>
-          <t>stop_position</t>
-        </is>
-      </c>
-      <c r="C488" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="D488" t="inlineStr">
-        <is>
-          <t>Jan Pieter Heijestraat</t>
-        </is>
-      </c>
-      <c r="E488" t="inlineStr">
-        <is>
-          <t>POINT (4.8657924 52.360364)</t>
-        </is>
-      </c>
-    </row>
-    <row r="489">
-      <c r="A489" t="inlineStr">
-        <is>
-          <t>6948706658</t>
-        </is>
-      </c>
-      <c r="B489" t="inlineStr">
-        <is>
-          <t>platform</t>
-        </is>
-      </c>
-      <c r="C489" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="D489" t="inlineStr">
-        <is>
-          <t>Overtoom</t>
-        </is>
-      </c>
-      <c r="E489" t="inlineStr">
-        <is>
-          <t>POINT (4.8750109 52.3632351)</t>
-        </is>
-      </c>
-    </row>
-    <row r="490">
-      <c r="A490" t="inlineStr">
-        <is>
-          <t>6948706663</t>
-        </is>
-      </c>
-      <c r="B490" t="inlineStr">
-        <is>
-          <t>platform</t>
-        </is>
-      </c>
-      <c r="C490" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="D490" t="inlineStr">
-        <is>
-          <t>Overtoom</t>
-        </is>
-      </c>
-      <c r="E490" t="inlineStr">
-        <is>
-          <t>POINT (4.8750531 52.3630036)</t>
-        </is>
-      </c>
-    </row>
-    <row r="491">
-      <c r="A491" t="inlineStr">
-        <is>
-          <t>6960792121</t>
-        </is>
-      </c>
-      <c r="B491" t="inlineStr">
-        <is>
-          <t>stop_position</t>
-        </is>
-      </c>
-      <c r="C491" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="D491" t="inlineStr">
-        <is>
-          <t>Hoofdweg</t>
-        </is>
-      </c>
-      <c r="E491" t="inlineStr">
-        <is>
-          <t>POINT (4.853975 52.3642479)</t>
-        </is>
-      </c>
-    </row>
-    <row r="492">
-      <c r="A492" t="inlineStr">
-        <is>
-          <t>6960817829</t>
-        </is>
-      </c>
-      <c r="B492" t="inlineStr">
-        <is>
-          <t>platform</t>
-        </is>
-      </c>
-      <c r="C492" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="D492" t="inlineStr">
-        <is>
-          <t>Postjesweg</t>
-        </is>
-      </c>
-      <c r="E492" t="inlineStr">
-        <is>
-          <t>POINT (4.8531209 52.3638543)</t>
-        </is>
-      </c>
-    </row>
-    <row r="493">
-      <c r="A493" t="inlineStr">
-        <is>
-          <t>6960821046</t>
-        </is>
-      </c>
-      <c r="B493" t="inlineStr">
-        <is>
-          <t>platform</t>
-        </is>
-      </c>
-      <c r="C493" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="D493" t="inlineStr">
-        <is>
-          <t>Witte de Withstraat</t>
-        </is>
-      </c>
-      <c r="E493" t="inlineStr">
-        <is>
-          <t>POINT (4.8591821 52.3647842)</t>
-        </is>
-      </c>
-    </row>
-    <row r="494">
-      <c r="A494" t="inlineStr">
-        <is>
-          <t>6960822550</t>
-        </is>
-      </c>
-      <c r="B494" t="inlineStr">
-        <is>
-          <t>platform</t>
-        </is>
-      </c>
-      <c r="C494" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="D494" t="inlineStr">
-        <is>
-          <t>Corantijnstraat</t>
-        </is>
-      </c>
-      <c r="E494" t="inlineStr">
-        <is>
-          <t>POINT (4.8533241 52.3617303)</t>
-        </is>
-      </c>
-    </row>
-    <row r="495">
-      <c r="A495" t="inlineStr">
-        <is>
-          <t>6960841763</t>
-        </is>
-      </c>
-      <c r="B495" t="inlineStr">
-        <is>
-          <t>platform</t>
-        </is>
-      </c>
-      <c r="C495" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="D495" t="inlineStr">
-        <is>
-          <t>Witte de Withstraat</t>
-        </is>
-      </c>
-      <c r="E495" t="inlineStr">
-        <is>
-          <t>POINT (4.8586029 52.3648041)</t>
-        </is>
-      </c>
-    </row>
-    <row r="496">
-      <c r="A496" t="inlineStr">
-        <is>
-          <t>6960888638</t>
-        </is>
-      </c>
-      <c r="B496" t="inlineStr">
-        <is>
-          <t>platform</t>
-        </is>
-      </c>
-      <c r="C496" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="D496" t="inlineStr">
-        <is>
-          <t>Hoofdweg</t>
-        </is>
-      </c>
-      <c r="E496" t="inlineStr">
-        <is>
-          <t>POINT (4.853974 52.3642376)</t>
-        </is>
-      </c>
-    </row>
-    <row r="497">
-      <c r="A497" t="inlineStr">
-        <is>
-          <t>7026721048</t>
-        </is>
-      </c>
-      <c r="B497" t="inlineStr">
-        <is>
-          <t>platform</t>
-        </is>
-      </c>
-      <c r="C497" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="D497" t="inlineStr">
-        <is>
-          <t>Lutmastraat</t>
-        </is>
-      </c>
-      <c r="E497" t="inlineStr">
-        <is>
-          <t>POINT (4.9033465 52.3514523)</t>
-        </is>
-      </c>
-    </row>
-    <row r="498">
-      <c r="A498" t="inlineStr">
-        <is>
-          <t>7026721051</t>
-        </is>
-      </c>
-      <c r="B498" t="inlineStr">
-        <is>
-          <t>stop_position</t>
-        </is>
-      </c>
-      <c r="C498" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="D498" t="inlineStr">
-        <is>
-          <t>Lutmastraat</t>
-        </is>
-      </c>
-      <c r="E498" t="inlineStr">
-        <is>
-          <t>POINT (4.903158 52.3517731)</t>
-        </is>
-      </c>
-    </row>
-    <row r="499">
-      <c r="A499" t="inlineStr">
-        <is>
-          <t>7026721052</t>
-        </is>
-      </c>
-      <c r="B499" t="inlineStr">
-        <is>
-          <t>platform</t>
-        </is>
-      </c>
-      <c r="C499" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="D499" t="inlineStr">
-        <is>
-          <t>Lutmastraat</t>
-        </is>
-      </c>
-      <c r="E499" t="inlineStr">
-        <is>
-          <t>POINT (4.9031286 52.3517697)</t>
-        </is>
-      </c>
-    </row>
-    <row r="500">
-      <c r="A500" t="inlineStr">
-        <is>
-          <t>7026741141</t>
-        </is>
-      </c>
-      <c r="B500" t="inlineStr">
-        <is>
-          <t>platform</t>
-        </is>
-      </c>
-      <c r="C500" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="D500" t="inlineStr">
-        <is>
-          <t>Amstelkade</t>
-        </is>
-      </c>
-      <c r="E500" t="inlineStr">
-        <is>
-          <t>POINT (4.9043666 52.3487294)</t>
-        </is>
-      </c>
-    </row>
-    <row r="501">
-      <c r="A501" t="inlineStr">
-        <is>
-          <t>7026741144</t>
-        </is>
-      </c>
-      <c r="B501" t="inlineStr">
-        <is>
-          <t>platform</t>
-        </is>
-      </c>
-      <c r="C501" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="D501" t="inlineStr">
-        <is>
-          <t>Amstelkade</t>
-        </is>
-      </c>
-      <c r="E501" t="inlineStr">
-        <is>
-          <t>POINT (4.9040188 52.3494066)</t>
-        </is>
-      </c>
-    </row>
-    <row r="502">
-      <c r="A502" t="inlineStr">
-        <is>
-          <t>7113017147</t>
-        </is>
-      </c>
-      <c r="B502" t="inlineStr">
-        <is>
-          <t>platform</t>
-        </is>
-      </c>
-      <c r="C502" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="D502" t="inlineStr">
-        <is>
-          <t>Arent Krijtsstraat</t>
-        </is>
-      </c>
-      <c r="E502" t="inlineStr">
-        <is>
-          <t>POINT (4.9555856 52.3393987)</t>
-        </is>
-      </c>
-    </row>
-    <row r="503">
-      <c r="A503" t="inlineStr">
-        <is>
-          <t>7191641103</t>
-        </is>
-      </c>
-      <c r="B503" t="inlineStr">
-        <is>
-          <t>platform</t>
-        </is>
-      </c>
-      <c r="C503" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="D503" t="inlineStr">
-        <is>
-          <t>Molukkenstraat</t>
-        </is>
-      </c>
-      <c r="E503" t="inlineStr">
-        <is>
-          <t>POINT (4.9405104 52.361724)</t>
-        </is>
-      </c>
-    </row>
-    <row r="504">
-      <c r="A504" t="inlineStr">
-        <is>
-          <t>7191816990</t>
-        </is>
-      </c>
-      <c r="B504" t="inlineStr">
-        <is>
-          <t>platform</t>
-        </is>
-      </c>
-      <c r="C504" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="D504" t="inlineStr">
-        <is>
-          <t>Wijttenbachstraat</t>
-        </is>
-      </c>
-      <c r="E504" t="inlineStr">
-        <is>
-          <t>POINT (4.9250583 52.3602514)</t>
-        </is>
-      </c>
-    </row>
-    <row r="505">
-      <c r="A505" t="inlineStr">
-        <is>
-          <t>7197053237</t>
-        </is>
-      </c>
-      <c r="B505" t="inlineStr">
-        <is>
-          <t>stop_position</t>
-        </is>
-      </c>
-      <c r="C505" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="D505" t="inlineStr">
-        <is>
-          <t>Weteringcircuit</t>
-        </is>
-      </c>
-      <c r="E505" t="inlineStr">
-        <is>
-          <t>POINT (4.8923379 52.3593327)</t>
-        </is>
-      </c>
-    </row>
-    <row r="506">
-      <c r="A506" t="inlineStr">
-        <is>
-          <t>7208341889</t>
-        </is>
-      </c>
-      <c r="B506" t="inlineStr">
-        <is>
-          <t>stop_position</t>
-        </is>
-      </c>
-      <c r="C506" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="D506" t="inlineStr">
-        <is>
-          <t>Hogeweg</t>
-        </is>
-      </c>
-      <c r="E506" t="inlineStr">
-        <is>
-          <t>POINT (4.9310414 52.3534088)</t>
-        </is>
-      </c>
-    </row>
-    <row r="507">
-      <c r="A507" t="inlineStr">
-        <is>
-          <t>7223733172</t>
-        </is>
-      </c>
-      <c r="B507" t="inlineStr">
-        <is>
-          <t>stop_position</t>
-        </is>
-      </c>
-      <c r="C507" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="D507" t="inlineStr">
-        <is>
-          <t>Roelof Hartplein</t>
-        </is>
-      </c>
-      <c r="E507" t="inlineStr">
-        <is>
-          <t>POINT (4.8828562 52.3527563)</t>
-        </is>
-      </c>
-    </row>
-    <row r="508">
-      <c r="A508" t="inlineStr">
-        <is>
-          <t>7223761935</t>
-        </is>
-      </c>
-      <c r="B508" t="inlineStr">
-        <is>
-          <t>stop_position</t>
-        </is>
-      </c>
-      <c r="C508" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="D508" t="inlineStr">
-        <is>
-          <t>Roelof Hartplein</t>
-        </is>
-      </c>
-      <c r="E508" t="inlineStr">
-        <is>
-          <t>POINT (4.8820747 52.3526434)</t>
-        </is>
-      </c>
-    </row>
-    <row r="509">
-      <c r="A509" t="inlineStr">
-        <is>
-          <t>7819762726</t>
-        </is>
-      </c>
-      <c r="B509" t="inlineStr">
-        <is>
-          <t>stop_position</t>
-        </is>
-      </c>
-      <c r="C509" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="D509" t="inlineStr">
-        <is>
-          <t>Marnixplein</t>
-        </is>
-      </c>
-      <c r="E509" t="inlineStr">
-        <is>
-          <t>POINT (4.8786695 52.3778393)</t>
-        </is>
-      </c>
-    </row>
-    <row r="510">
-      <c r="A510" t="inlineStr">
-        <is>
-          <t>7903232512</t>
-        </is>
-      </c>
-      <c r="B510" t="inlineStr">
-        <is>
-          <t>stop_position</t>
-        </is>
-      </c>
-      <c r="C510" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="D510" t="inlineStr">
-        <is>
-          <t>Eerste Marnixdwarsstraat</t>
-        </is>
-      </c>
-      <c r="E510" t="inlineStr">
-        <is>
-          <t>POINT (4.8821775 52.383238)</t>
-        </is>
-      </c>
-    </row>
-    <row r="511">
-      <c r="A511" t="inlineStr">
-        <is>
-          <t>8721712740</t>
-        </is>
-      </c>
-      <c r="B511" t="inlineStr">
-        <is>
-          <t>stop_position</t>
-        </is>
-      </c>
-      <c r="C511" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="D511" t="inlineStr">
-        <is>
-          <t>Koningsplein</t>
-        </is>
-      </c>
-      <c r="E511" t="inlineStr">
-        <is>
-          <t>POINT (4.8893427 52.3677188)</t>
-        </is>
-      </c>
-    </row>
-    <row r="512">
-      <c r="A512" t="inlineStr">
-        <is>
-          <t>9081861253</t>
-        </is>
-      </c>
-      <c r="B512" t="inlineStr">
-        <is>
-          <t>stop_position</t>
-        </is>
-      </c>
-      <c r="C512" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="D512" t="inlineStr">
-        <is>
-          <t>Museumplein</t>
-        </is>
-      </c>
-      <c r="E512" t="inlineStr">
-        <is>
-          <t>POINT (4.8806042 52.3587143)</t>
-        </is>
-      </c>
-    </row>
-    <row r="513">
-      <c r="A513" t="inlineStr">
-        <is>
-          <t>9285523463</t>
-        </is>
-      </c>
-      <c r="B513" t="inlineStr">
-        <is>
-          <t>stop_position</t>
-        </is>
-      </c>
-      <c r="C513" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="D513" t="inlineStr">
-        <is>
-          <t>Centraal Station</t>
-        </is>
-      </c>
-      <c r="E513" t="inlineStr">
-        <is>
-          <t>POINT (4.9004043 52.3779466)</t>
-        </is>
-      </c>
-    </row>
-    <row r="514">
-      <c r="A514" t="inlineStr">
-        <is>
-          <t>9332527257</t>
-        </is>
-      </c>
-      <c r="B514" t="inlineStr">
-        <is>
-          <t>stop_position</t>
-        </is>
-      </c>
-      <c r="C514" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="D514" t="inlineStr">
-        <is>
-          <t>Museumplein</t>
-        </is>
-      </c>
-      <c r="E514" t="inlineStr">
-        <is>
-          <t>POINT (4.880612 52.3586985)</t>
-        </is>
-      </c>
-    </row>
-    <row r="515">
-      <c r="A515" t="inlineStr">
-        <is>
-          <t>9533383353</t>
-        </is>
-      </c>
-      <c r="B515" t="inlineStr">
-        <is>
-          <t>stop_position</t>
-        </is>
-      </c>
-      <c r="C515" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="D515" t="inlineStr">
-        <is>
-          <t>Parklaan</t>
-        </is>
-      </c>
-      <c r="E515" t="inlineStr">
-        <is>
-          <t>POINT (4.8504873 52.3042535)</t>
-        </is>
-      </c>
-    </row>
-    <row r="516">
-      <c r="A516" t="inlineStr">
-        <is>
-          <t>9552181254</t>
-        </is>
-      </c>
-      <c r="B516" t="inlineStr">
-        <is>
-          <t>stop_position</t>
-        </is>
-      </c>
-      <c r="C516" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="D516" t="inlineStr">
-        <is>
-          <t>Korte 's-Gravesandestraat</t>
-        </is>
-      </c>
-      <c r="E516" t="inlineStr">
-        <is>
-          <t>POINT (4.9141489 52.3624363)</t>
-        </is>
-      </c>
-    </row>
-    <row r="517">
-      <c r="A517" t="inlineStr">
-        <is>
-          <t>9611530190</t>
-        </is>
-      </c>
-      <c r="B517" t="inlineStr">
-        <is>
-          <t>stop_position</t>
-        </is>
-      </c>
-      <c r="C517" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="D517" t="inlineStr">
-        <is>
-          <t>v. Hilligaertstraat</t>
-        </is>
-      </c>
-      <c r="E517" t="inlineStr">
-        <is>
-          <t>POINT (4.8914549 52.3494092)</t>
-        </is>
-      </c>
-    </row>
-    <row r="518">
-      <c r="A518" t="inlineStr">
-        <is>
-          <t>9755695512</t>
-        </is>
-      </c>
-      <c r="B518" t="inlineStr">
-        <is>
-          <t>stop_position</t>
-        </is>
-      </c>
-      <c r="C518" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="D518" t="inlineStr">
-        <is>
-          <t>Parklaan</t>
-        </is>
-      </c>
-      <c r="E518" t="inlineStr">
-        <is>
-          <t>POINT (4.850538 52.3052105)</t>
-        </is>
-      </c>
-    </row>
-    <row r="519">
-      <c r="A519" t="inlineStr">
-        <is>
-          <t>9807403547</t>
-        </is>
-      </c>
-      <c r="B519" t="inlineStr">
-        <is>
-          <t>stop_position</t>
-        </is>
-      </c>
-      <c r="C519" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="D519" t="inlineStr">
-        <is>
-          <t>Centraal Station</t>
-        </is>
-      </c>
-      <c r="E519" t="inlineStr">
-        <is>
-          <t>POINT (4.9009807 52.3777002)</t>
-        </is>
-      </c>
-    </row>
-    <row r="520">
-      <c r="A520" t="inlineStr">
-        <is>
-          <t>9807403548</t>
-        </is>
-      </c>
-      <c r="B520" t="inlineStr">
-        <is>
-          <t>stop_position</t>
-        </is>
-      </c>
-      <c r="C520" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="D520" t="inlineStr">
-        <is>
-          <t>Centraal Station</t>
-        </is>
-      </c>
-      <c r="E520" t="inlineStr">
-        <is>
-          <t>POINT (4.9009806 52.3777485)</t>
-        </is>
-      </c>
-    </row>
-    <row r="521">
-      <c r="A521" t="inlineStr">
-        <is>
-          <t>9807403549</t>
-        </is>
-      </c>
-      <c r="B521" t="inlineStr">
-        <is>
-          <t>stop_position</t>
-        </is>
-      </c>
-      <c r="C521" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="D521" t="inlineStr">
-        <is>
-          <t>Centraal Station</t>
-        </is>
-      </c>
-      <c r="E521" t="inlineStr">
-        <is>
-          <t>POINT (4.9009723 52.3777976)</t>
-        </is>
-      </c>
-    </row>
-    <row r="522">
-      <c r="A522" t="inlineStr">
-        <is>
-          <t>9807478538</t>
-        </is>
-      </c>
-      <c r="B522" t="inlineStr">
-        <is>
-          <t>stop_position</t>
-        </is>
-      </c>
-      <c r="C522" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="D522" t="inlineStr">
-        <is>
-          <t>Centraal Station</t>
-        </is>
-      </c>
-      <c r="E522" t="inlineStr">
-        <is>
-          <t>POINT (4.8987647 52.3785952)</t>
-        </is>
-      </c>
-    </row>
-    <row r="523">
-      <c r="A523" t="inlineStr">
-        <is>
-          <t>9807478539</t>
-        </is>
-      </c>
-      <c r="B523" t="inlineStr">
-        <is>
-          <t>stop_position</t>
-        </is>
-      </c>
-      <c r="C523" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="D523" t="inlineStr">
-        <is>
-          <t>Centraal Station</t>
-        </is>
-      </c>
-      <c r="E523" t="inlineStr">
-        <is>
-          <t>POINT (4.8988204 52.3786244)</t>
-        </is>
-      </c>
-    </row>
-    <row r="524">
-      <c r="A524" t="inlineStr">
-        <is>
-          <t>9982135037</t>
-        </is>
-      </c>
-      <c r="B524" t="inlineStr">
-        <is>
-          <t>stop_position</t>
-        </is>
-      </c>
-      <c r="C524" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="D524" t="inlineStr">
-        <is>
-          <t>Centraal Station</t>
-        </is>
-      </c>
-      <c r="E524" t="inlineStr">
-        <is>
-          <t>POINT (4.9009743 52.3778019)</t>
-        </is>
-      </c>
-    </row>
-    <row r="525">
-      <c r="A525" t="inlineStr">
-        <is>
-          <t>9982135040</t>
-        </is>
-      </c>
-      <c r="B525" t="inlineStr">
-        <is>
-          <t>stop_position</t>
-        </is>
-      </c>
-      <c r="C525" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="D525" t="inlineStr">
-        <is>
-          <t>Centraal Station</t>
-        </is>
-      </c>
-      <c r="E525" t="inlineStr">
-        <is>
-          <t>POINT (4.9009825 52.3777528)</t>
-        </is>
-      </c>
-    </row>
-    <row r="526">
-      <c r="A526" t="inlineStr">
-        <is>
-          <t>9982135046</t>
-        </is>
-      </c>
-      <c r="B526" t="inlineStr">
-        <is>
-          <t>stop_position</t>
-        </is>
-      </c>
-      <c r="C526" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="D526" t="inlineStr">
-        <is>
-          <t>Centraal Station</t>
-        </is>
-      </c>
-      <c r="E526" t="inlineStr">
-        <is>
-          <t>POINT (4.9009826 52.3777045)</t>
-        </is>
-      </c>
-    </row>
-    <row r="527">
-      <c r="A527" t="inlineStr">
-        <is>
-          <t>10273052985</t>
-        </is>
-      </c>
-      <c r="B527" t="inlineStr">
-        <is>
-          <t>stop_position</t>
-        </is>
-      </c>
-      <c r="C527" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="D527" t="inlineStr">
-        <is>
-          <t>Paleisstraat</t>
-        </is>
-      </c>
-      <c r="E527" t="inlineStr">
-        <is>
-          <t>POINT (4.890644 52.3719008)</t>
-        </is>
-      </c>
-    </row>
-    <row r="528">
-      <c r="A528" t="inlineStr">
-        <is>
-          <t>10607209062</t>
-        </is>
-      </c>
-      <c r="B528" t="inlineStr">
-        <is>
-          <t>stop_position</t>
-        </is>
-      </c>
-      <c r="C528" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="D528" t="inlineStr">
-        <is>
-          <t>Vennepluimstraat</t>
-        </is>
-      </c>
-      <c r="E528" t="inlineStr">
         <is>
           <t>POINT (4.9899502 52.3580579)</t>
         </is>
